--- a/crudo/datos/Puestos y salarios_para ceped.data.xlsx
+++ b/crudo/datos/Puestos y salarios_para ceped.data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanch\Dropbox\DT 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\ceped-data\crudo\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77074E7D-7839-4EEB-8174-2359B7B7AE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82EBF80-E72C-4394-BCAA-F4D11FBE0E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Síntesis Puestos, W y Masa W" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>Año</t>
   </si>
@@ -77,9 +77,6 @@
     <t>PUESTOS DE TRABAJO - COMPOSICIÓN</t>
   </si>
   <si>
-    <t>CEPED  (en base a CGI93 y CGI04)</t>
-  </si>
-  <si>
     <t>MASA SALARIAL (en millones de $ de 2021)</t>
   </si>
   <si>
@@ -98,12 +95,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
-    <numFmt numFmtId="175" formatCode="0.0"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -996,8 +993,8 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -1133,10 +1130,10 @@
     <xf numFmtId="3" fontId="21" fillId="25" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="24" borderId="34" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="24" borderId="34" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="24" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="24" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1151,13 +1148,13 @@
     <xf numFmtId="3" fontId="21" fillId="24" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="21" fillId="24" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="24" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="21" fillId="24" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="24" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="21" fillId="24" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="24" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="21" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1166,13 +1163,13 @@
     <xf numFmtId="3" fontId="21" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="21" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="21" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="21" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="21" fillId="24" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1181,37 +1178,37 @@
     <xf numFmtId="3" fontId="21" fillId="24" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="21" fillId="24" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="24" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="21" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="21" fillId="24" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="24" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="21" fillId="24" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="24" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="21" fillId="24" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="24" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="21" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="21" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="21" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="21" fillId="24" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="24" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="21" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="21" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1223,95 +1220,95 @@
     <xf numFmtId="3" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="21" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="24" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="24" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="24" borderId="33" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="24" borderId="35" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="21" fillId="24" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="21" fillId="24" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="21" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="24" borderId="33" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="24" borderId="35" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="137">
@@ -1789,68 +1786,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="13" width="13.6640625" style="1"/>
-    <col min="14" max="14" width="14.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="13.6640625" style="1"/>
+    <col min="2" max="13" width="13.7109375" style="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="13.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:26" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="54" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="54" t="s">
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="62" t="s">
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="54" t="s">
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="56"/>
-    </row>
-    <row r="4" spans="1:26" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="60"/>
+    </row>
+    <row r="4" spans="1:26" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="62"/>
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1887,8 +1884,8 @@
       <c r="M4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="64"/>
-      <c r="O4" s="65" t="s">
+      <c r="N4" s="65"/>
+      <c r="O4" s="52" t="s">
         <v>1</v>
       </c>
       <c r="P4" s="8" t="s">
@@ -1925,7 +1922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>1993</v>
       </c>
@@ -1965,11 +1962,11 @@
       <c r="M5" s="18">
         <v>93098.959955486891</v>
       </c>
-      <c r="N5" s="69">
+      <c r="N5" s="56">
         <f>H5/F5</f>
         <v>0.31523174544119287</v>
       </c>
-      <c r="O5" s="66">
+      <c r="O5" s="53">
         <v>40.504531329365953</v>
       </c>
       <c r="P5" s="34">
@@ -2006,7 +2003,7 @@
         <v>9410118.0655794535</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1994</v>
       </c>
@@ -2050,7 +2047,7 @@
         <f t="shared" ref="N6:N33" si="0">H6/F6</f>
         <v>0.3134997824246335</v>
       </c>
-      <c r="O6" s="67">
+      <c r="O6" s="54">
         <v>40.338874440245114</v>
       </c>
       <c r="P6" s="36">
@@ -2087,7 +2084,7 @@
         <v>9068988.6405121777</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1995</v>
       </c>
@@ -2131,7 +2128,7 @@
         <f t="shared" si="0"/>
         <v>0.30617143849399642</v>
       </c>
-      <c r="O7" s="67">
+      <c r="O7" s="54">
         <v>39.212769960889183</v>
       </c>
       <c r="P7" s="36">
@@ -2168,7 +2165,7 @@
         <v>8579427.4615426883</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1996</v>
       </c>
@@ -2212,7 +2209,7 @@
         <f t="shared" si="0"/>
         <v>0.31704820735135647</v>
       </c>
-      <c r="O8" s="67">
+      <c r="O8" s="54">
         <v>39.249100361438103</v>
       </c>
       <c r="P8" s="36">
@@ -2249,7 +2246,7 @@
         <v>8445768.2617652528</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1997</v>
       </c>
@@ -2293,7 +2290,7 @@
         <f t="shared" si="0"/>
         <v>0.31685755796278464</v>
       </c>
-      <c r="O9" s="67">
+      <c r="O9" s="54">
         <v>39.855410620932759</v>
       </c>
       <c r="P9" s="36">
@@ -2330,7 +2327,7 @@
         <v>8872873.483670311</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1998</v>
       </c>
@@ -2374,7 +2371,7 @@
         <f t="shared" si="0"/>
         <v>0.31635909788903843</v>
       </c>
-      <c r="O10" s="67">
+      <c r="O10" s="54">
         <v>40.500987218610021</v>
       </c>
       <c r="P10" s="36">
@@ -2411,7 +2408,7 @@
         <v>9254075.1799652092</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1999</v>
       </c>
@@ -2455,7 +2452,7 @@
         <f t="shared" si="0"/>
         <v>0.31572651660234707</v>
       </c>
-      <c r="O11" s="67">
+      <c r="O11" s="54">
         <v>39.799756075165156</v>
       </c>
       <c r="P11" s="36">
@@ -2492,7 +2489,7 @@
         <v>9475747.4775215778</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2000</v>
       </c>
@@ -2536,7 +2533,7 @@
         <f t="shared" si="0"/>
         <v>0.30278845159325318</v>
       </c>
-      <c r="O12" s="67">
+      <c r="O12" s="54">
         <v>39.434325736870079</v>
       </c>
       <c r="P12" s="36">
@@ -2573,7 +2570,7 @@
         <v>9540891.1247169226</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2001</v>
       </c>
@@ -2617,7 +2614,7 @@
         <f t="shared" si="0"/>
         <v>0.2855599172204048</v>
       </c>
-      <c r="O13" s="67">
+      <c r="O13" s="54">
         <v>39.811949981958264</v>
       </c>
       <c r="P13" s="36">
@@ -2654,7 +2651,7 @@
         <v>9457467.7916841917</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2002</v>
       </c>
@@ -2698,7 +2695,7 @@
         <f t="shared" si="0"/>
         <v>0.25940843771879579</v>
       </c>
-      <c r="O14" s="67">
+      <c r="O14" s="54">
         <v>38.731396190513145</v>
       </c>
       <c r="P14" s="36">
@@ -2735,7 +2732,7 @@
         <v>7118848.8806241425</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2003</v>
       </c>
@@ -2779,7 +2776,7 @@
         <f t="shared" si="0"/>
         <v>0.26161004927870529</v>
       </c>
-      <c r="O15" s="67">
+      <c r="O15" s="54">
         <v>39.091718097180689</v>
       </c>
       <c r="P15" s="36">
@@ -2816,7 +2813,7 @@
         <v>7282817.8848209586</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>2004</v>
       </c>
@@ -2860,7 +2857,7 @@
         <f t="shared" si="0"/>
         <v>0.24949092443044743</v>
       </c>
-      <c r="O16" s="67">
+      <c r="O16" s="54">
         <v>40.170053472156809</v>
       </c>
       <c r="P16" s="36">
@@ -2897,7 +2894,7 @@
         <v>8583416.2239047717</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2005</v>
       </c>
@@ -2941,7 +2938,7 @@
         <f t="shared" si="0"/>
         <v>0.24232215921963154</v>
       </c>
-      <c r="O17" s="67">
+      <c r="O17" s="54">
         <v>42.294678916329104</v>
       </c>
       <c r="P17" s="36">
@@ -2978,7 +2975,7 @@
         <v>9988107.7876070626</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2006</v>
       </c>
@@ -3022,7 +3019,7 @@
         <f t="shared" si="0"/>
         <v>0.24347497371289289</v>
       </c>
-      <c r="O18" s="67">
+      <c r="O18" s="54">
         <v>44.04699214419761</v>
       </c>
       <c r="P18" s="36">
@@ -3059,7 +3056,7 @@
         <v>11966480.98801457</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2007</v>
       </c>
@@ -3103,7 +3100,7 @@
         <f t="shared" si="0"/>
         <v>0.22899439876428429</v>
       </c>
-      <c r="O19" s="67">
+      <c r="O19" s="54">
         <v>45.945738092089691</v>
       </c>
       <c r="P19" s="36">
@@ -3140,7 +3137,7 @@
         <v>13039734.630532626</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2008</v>
       </c>
@@ -3184,7 +3181,7 @@
         <f t="shared" si="0"/>
         <v>0.22420679008688835</v>
       </c>
-      <c r="O20" s="67">
+      <c r="O20" s="54">
         <v>47.950029605440427</v>
       </c>
       <c r="P20" s="36">
@@ -3221,7 +3218,7 @@
         <v>14006462.609525288</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2009</v>
       </c>
@@ -3265,7 +3262,7 @@
         <f t="shared" si="0"/>
         <v>0.22118810534793984</v>
       </c>
-      <c r="O21" s="67">
+      <c r="O21" s="54">
         <v>47.260535854883848</v>
       </c>
       <c r="P21" s="36">
@@ -3302,7 +3299,7 @@
         <v>14871177.730394408</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2010</v>
       </c>
@@ -3346,7 +3343,7 @@
         <f t="shared" si="0"/>
         <v>0.21734087238615027</v>
       </c>
-      <c r="O22" s="67">
+      <c r="O22" s="54">
         <v>47.424726057659754</v>
       </c>
       <c r="P22" s="36">
@@ -3383,7 +3380,7 @@
         <v>15560932.449343542</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2011</v>
       </c>
@@ -3427,7 +3424,7 @@
         <f t="shared" si="0"/>
         <v>0.21448116558617908</v>
       </c>
-      <c r="O23" s="67">
+      <c r="O23" s="54">
         <v>48.194445655497596</v>
       </c>
       <c r="P23" s="36">
@@ -3464,7 +3461,7 @@
         <v>17434457.013140574</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>2012</v>
       </c>
@@ -3508,7 +3505,7 @@
         <f t="shared" si="0"/>
         <v>0.20719788756554197</v>
       </c>
-      <c r="O24" s="67">
+      <c r="O24" s="54">
         <v>48.149698685968438</v>
       </c>
       <c r="P24" s="36">
@@ -3545,7 +3542,7 @@
         <v>18458156.445937123</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <f>A24+1</f>
         <v>2013</v>
@@ -3590,7 +3587,7 @@
         <f t="shared" si="0"/>
         <v>0.21633643863182109</v>
       </c>
-      <c r="O25" s="67">
+      <c r="O25" s="54">
         <v>48.127784168620792</v>
       </c>
       <c r="P25" s="36">
@@ -3627,7 +3624,7 @@
         <v>19002742.496485885</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <f>A25+1</f>
         <v>2014</v>
@@ -3672,7 +3669,7 @@
         <f t="shared" si="0"/>
         <v>0.20582213315248329</v>
       </c>
-      <c r="O26" s="67">
+      <c r="O26" s="54">
         <v>47.764891126732721</v>
       </c>
       <c r="P26" s="36">
@@ -3709,7 +3706,7 @@
         <v>18605517.582077246</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <f>A26+1</f>
         <v>2015</v>
@@ -3754,7 +3751,7 @@
         <f t="shared" si="0"/>
         <v>0.20252639986960397</v>
       </c>
-      <c r="O27" s="67">
+      <c r="O27" s="54">
         <v>47.851685278677927</v>
       </c>
       <c r="P27" s="36">
@@ -3791,7 +3788,7 @@
         <v>20412372.167210713</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <f>A27+1</f>
         <v>2016</v>
@@ -3836,7 +3833,7 @@
         <f t="shared" si="0"/>
         <v>0.20005111503409817</v>
       </c>
-      <c r="O28" s="67">
+      <c r="O28" s="54">
         <v>47.10631766825788</v>
       </c>
       <c r="P28" s="36">
@@ -3873,7 +3870,7 @@
         <v>19654042.399281856</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>2017</v>
@@ -3914,11 +3911,11 @@
       <c r="M29" s="11">
         <v>4656443.8443858251</v>
       </c>
-      <c r="N29" s="70">
+      <c r="N29" s="57">
         <f t="shared" si="0"/>
         <v>0.19824031701311104</v>
       </c>
-      <c r="O29" s="68">
+      <c r="O29" s="55">
         <v>47.09203474893333</v>
       </c>
       <c r="P29" s="38">
@@ -3955,7 +3952,7 @@
         <v>20234738.79475145</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>2018</v>
       </c>
@@ -3995,11 +3992,11 @@
       <c r="M30" s="11">
         <v>5916350.5687418394</v>
       </c>
-      <c r="N30" s="70">
+      <c r="N30" s="57">
         <f t="shared" si="0"/>
         <v>0.19683873553906778</v>
       </c>
-      <c r="O30" s="68">
+      <c r="O30" s="55">
         <v>46.788074859464231</v>
       </c>
       <c r="P30" s="38">
@@ -4036,7 +4033,7 @@
         <v>19146737.328898679</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>2019</v>
       </c>
@@ -4076,11 +4073,11 @@
       <c r="M31" s="11">
         <v>8459463.420414282</v>
       </c>
-      <c r="N31" s="70">
+      <c r="N31" s="57">
         <f t="shared" si="0"/>
         <v>0.18103354494771634</v>
       </c>
-      <c r="O31" s="68">
+      <c r="O31" s="55">
         <v>45.952442437843821</v>
       </c>
       <c r="P31" s="38">
@@ -4117,7 +4114,7 @@
         <v>17829479.767684624</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>2020</v>
       </c>
@@ -4157,11 +4154,11 @@
       <c r="M32" s="11">
         <v>11050077.532349447</v>
       </c>
-      <c r="N32" s="70">
+      <c r="N32" s="57">
         <f t="shared" si="0"/>
         <v>0.17329693507268279</v>
       </c>
-      <c r="O32" s="68">
+      <c r="O32" s="55">
         <v>47.325976295663615</v>
       </c>
       <c r="P32" s="38">
@@ -4198,7 +4195,7 @@
         <v>16399351.403397979</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>2021</v>
       </c>
@@ -4242,7 +4239,7 @@
         <f t="shared" si="0"/>
         <v>0.17085245446782929</v>
       </c>
-      <c r="O33" s="67">
+      <c r="O33" s="54">
         <v>45.711294825899238</v>
       </c>
       <c r="P33" s="36">
@@ -4279,11 +4276,11 @@
         <v>16845694.283113934</v>
       </c>
     </row>
-    <row r="34" spans="1:26" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="41"/>
       <c r="O34" s="16"/>
     </row>
-    <row r="35" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
@@ -4293,19 +4290,19 @@
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
     </row>
-    <row r="36" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F36" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="N3:N4"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="N3:N4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.39370078740157483" bottom="1" header="0" footer="0"/>
@@ -4318,56 +4315,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:N34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="B3:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="13.6640625" style="1"/>
+    <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="13.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="57" t="s">
+      <c r="B3" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="57" t="s">
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="52"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="59"/>
-    </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="61"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="62"/>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
@@ -4384,7 +4381,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>1</v>
@@ -4396,10 +4393,10 @@
         <v>3</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>1993</v>
       </c>
@@ -4435,7 +4432,7 @@
       </c>
       <c r="N6" s="40"/>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1994</v>
       </c>
@@ -4471,7 +4468,7 @@
       </c>
       <c r="N7" s="40"/>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1995</v>
       </c>
@@ -4507,7 +4504,7 @@
       </c>
       <c r="N8" s="40"/>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1996</v>
       </c>
@@ -4543,7 +4540,7 @@
       </c>
       <c r="N9" s="40"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1997</v>
       </c>
@@ -4579,7 +4576,7 @@
       </c>
       <c r="N10" s="40"/>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1998</v>
       </c>
@@ -4615,7 +4612,7 @@
       </c>
       <c r="N11" s="40"/>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1999</v>
       </c>
@@ -4651,7 +4648,7 @@
       </c>
       <c r="N12" s="40"/>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2000</v>
       </c>
@@ -4687,7 +4684,7 @@
       </c>
       <c r="N13" s="40"/>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2001</v>
       </c>
@@ -4723,7 +4720,7 @@
       </c>
       <c r="N14" s="40"/>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2002</v>
       </c>
@@ -4759,7 +4756,7 @@
       </c>
       <c r="N15" s="40"/>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>2003</v>
       </c>
@@ -4795,7 +4792,7 @@
       </c>
       <c r="N16" s="40"/>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2004</v>
       </c>
@@ -4831,7 +4828,7 @@
       </c>
       <c r="N17" s="40"/>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2005</v>
       </c>
@@ -4867,7 +4864,7 @@
       </c>
       <c r="N18" s="40"/>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2006</v>
       </c>
@@ -4903,7 +4900,7 @@
       </c>
       <c r="N19" s="40"/>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2007</v>
       </c>
@@ -4939,7 +4936,7 @@
       </c>
       <c r="N20" s="40"/>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2008</v>
       </c>
@@ -4975,7 +4972,7 @@
       </c>
       <c r="N21" s="40"/>
     </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2009</v>
       </c>
@@ -5011,7 +5008,7 @@
       </c>
       <c r="N22" s="40"/>
     </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2010</v>
       </c>
@@ -5047,7 +5044,7 @@
       </c>
       <c r="N23" s="40"/>
     </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>2011</v>
       </c>
@@ -5083,7 +5080,7 @@
       </c>
       <c r="N24" s="40"/>
     </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>2012</v>
       </c>
@@ -5119,7 +5116,7 @@
       </c>
       <c r="N25" s="40"/>
     </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <f>A25+1</f>
         <v>2013</v>
@@ -5156,7 +5153,7 @@
       </c>
       <c r="N26" s="40"/>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <f>A26+1</f>
         <v>2014</v>
@@ -5193,7 +5190,7 @@
       </c>
       <c r="N27" s="40"/>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <f>A27+1</f>
         <v>2015</v>
@@ -5230,7 +5227,7 @@
       </c>
       <c r="N28" s="40"/>
     </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <f>A28+1</f>
         <v>2016</v>
@@ -5267,7 +5264,7 @@
       </c>
       <c r="N29" s="40"/>
     </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>2017</v>
@@ -5303,7 +5300,7 @@
         <v>43.680525672160961</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42">
         <v>2018</v>
       </c>
@@ -5338,7 +5335,7 @@
         <v>40.124968019181985</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42">
         <v>2019</v>
       </c>
@@ -5373,7 +5370,7 @@
         <v>38.800862182516838</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="42">
         <v>2020</v>
       </c>
@@ -5408,7 +5405,7 @@
         <v>40.209237737490589</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="42">
         <v>2021</v>
       </c>

--- a/crudo/datos/Puestos y salarios_para ceped.data.xlsx
+++ b/crudo/datos/Puestos y salarios_para ceped.data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\ceped-data\crudo\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82EBF80-E72C-4394-BCAA-F4D11FBE0E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFA0455-BF75-465E-AACB-908DB50A26E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Síntesis Puestos, W y Masa W" sheetId="14" r:id="rId1"/>
     <sheet name="Sintesis Participación" sheetId="15" r:id="rId2"/>
+    <sheet name="Diccionario" sheetId="16" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Sintesis Participación'!#REF!</definedName>
@@ -29,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Año</t>
   </si>
@@ -77,6 +80,9 @@
     <t>PUESTOS DE TRABAJO - COMPOSICIÓN</t>
   </si>
   <si>
+    <t>CEPED  (en base a CGI93 y CGI04)</t>
+  </si>
+  <si>
     <t>MASA SALARIAL (en millones de $ de 2021)</t>
   </si>
   <si>
@@ -87,6 +93,60 @@
   </si>
   <si>
     <t>PRODUCTO a precios corrientes empalmado</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>puestos</t>
+  </si>
+  <si>
+    <t>salario.nominal</t>
+  </si>
+  <si>
+    <t>masa.salarial</t>
+  </si>
+  <si>
+    <t>puestos.composicion</t>
+  </si>
+  <si>
+    <t>salario.real.2021</t>
+  </si>
+  <si>
+    <t>masa.salarial.real.2021</t>
+  </si>
+  <si>
+    <t>particip.vab.pb</t>
+  </si>
+  <si>
+    <t>particip.pib.pm</t>
+  </si>
+  <si>
+    <t>Total de puestos de trabajo (por sector o total de la economía)</t>
+  </si>
+  <si>
+    <t>Salario nominal promedio (del sector o del total de la economía)</t>
+  </si>
+  <si>
+    <t>Masa salarial nomial en millones de $ (del sector o del total de la economía)</t>
+  </si>
+  <si>
+    <t>Porcentaje del total de puestos de trabajo (por sector)</t>
+  </si>
+  <si>
+    <t>Salario real promedio en $ de 2021 (del sector o del total de la economía)</t>
+  </si>
+  <si>
+    <t>Masa salarial real en millones de $ de 2021 (del sector o del total de la economía)</t>
+  </si>
+  <si>
+    <t>Participación en el Valor Agregado Bruto a precios básicos (por sector o total de la economía)</t>
+  </si>
+  <si>
+    <t>Participación en el Producto Interno Bruto a precios de mercado (por sector o total de la economía)</t>
   </si>
 </sst>
 </file>
@@ -102,7 +162,7 @@
     <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -259,8 +319,21 @@
       <name val="Book Antiqua"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,8 +468,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -943,6 +1022,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1086,14 +1183,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1208,37 +1302,37 @@
     <xf numFmtId="167" fontId="21" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="21" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1259,6 +1353,15 @@
     <xf numFmtId="165" fontId="21" fillId="24" borderId="35" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1268,6 +1371,12 @@
     <xf numFmtId="0" fontId="20" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1277,12 +1386,6 @@
     <xf numFmtId="0" fontId="20" fillId="26" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1298,7 +1401,7 @@
     <xf numFmtId="0" fontId="20" fillId="26" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1344,7 +1447,7 @@
     <cellStyle name="Énfasis5" xfId="28" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="29" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="30" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Hipervínculo 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="Incorrecto" xfId="31" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Millares [0] 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="Millares 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
@@ -1783,14 +1886,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:Z36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3:M3"/>
+      <selection pane="bottomRight" activeCell="W3" sqref="W3:Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1803,2506 +1906,2506 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:26" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="58" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="58" t="s">
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="64" t="s">
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="58" t="s">
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="60"/>
-    </row>
-    <row r="4" spans="1:26" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="7" t="s">
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="62"/>
+    </row>
+    <row r="4" spans="1:26" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="66"/>
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="65"/>
-      <c r="O4" s="52" t="s">
+      <c r="N4" s="64"/>
+      <c r="O4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Y4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>1993</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>3745622.4296559528</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>1867224.3383475831</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>3634569.0314735984</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>9247415.7994771339</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>1164.8047771819729</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>1103.656454246006</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>367.18344300931307</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <v>838.96375281361372</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>52355.026794998426</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>24729.29031051046</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>16014.642849978005</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="17">
         <v>93098.959955486891</v>
       </c>
-      <c r="N5" s="56">
+      <c r="N5" s="55">
         <f>H5/F5</f>
         <v>0.31523174544119287</v>
       </c>
-      <c r="O5" s="53">
+      <c r="O5" s="52">
         <v>40.504531329365953</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="33">
         <v>20.191850121556765</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="33">
         <v>39.303618549077285</v>
       </c>
-      <c r="R5" s="35">
+      <c r="R5" s="34">
         <v>100</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="8">
         <v>117734.40306824114</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="5">
         <v>111553.74392215883</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="5">
         <v>37113.621377678581</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="10">
         <v>84799.529129996867</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W5" s="8">
         <v>5291863.4504947029</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="5">
         <v>2499550.3882229854</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="5">
         <v>1618704.2268617654</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="10">
         <v>9410118.0655794535</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>1994</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>3689372.4796759519</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>1886056.8343821215</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>3570518.684915232</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>9145947.9989733044</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>1158.8956571871254</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>1175.2158077399658</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>363.31353638101649</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>851.67107023891685</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>51307.172933305876</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>26598.285672742411</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>15566.613241572593</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <v>93472.071847620871</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="14">
         <f t="shared" ref="N6:N33" si="0">H6/F6</f>
         <v>0.3134997824246335</v>
       </c>
-      <c r="O6" s="54">
+      <c r="O6" s="53">
         <v>40.338874440245114</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="35">
         <v>20.621775179498552</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="35">
         <v>39.039350380256344</v>
       </c>
-      <c r="R6" s="37">
+      <c r="R6" s="36">
         <v>100</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="8">
         <v>112440.12615556938</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>114023.5644708818</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="5">
         <v>35249.955085569345</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="10">
         <v>82632.117901922567</v>
       </c>
-      <c r="W6" s="9">
+      <c r="W6" s="8">
         <v>4978002.0845957976</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="5">
         <v>2580659.0766110043</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="5">
         <v>1510327.4793053765</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z6" s="10">
         <v>9068988.6405121777</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>1995</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>3523389.2809521998</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>1900360.9775889521</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>3561560.6094909413</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>8985310.8680320941</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>1164.3090561888448</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>1181.7245331891695</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>356.4781785849259</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>847.78768239579927</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>49227.768579496187</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>26948.438269586619</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>15235.42366789379</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="10">
         <v>91411.630516976598</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="14">
         <f t="shared" si="0"/>
         <v>0.30617143849399642</v>
       </c>
-      <c r="O7" s="54">
+      <c r="O7" s="53">
         <v>39.212769960889183</v>
       </c>
-      <c r="P7" s="36">
+      <c r="P7" s="35">
         <v>21.149640847152536</v>
       </c>
-      <c r="Q7" s="36">
+      <c r="Q7" s="35">
         <v>39.63758919195827</v>
       </c>
-      <c r="R7" s="37">
+      <c r="R7" s="36">
         <v>100</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="8">
         <v>109276.08482527053</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>110910.6123004664</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="5">
         <v>33457.216083945052</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="10">
         <v>79569.009794145823</v>
       </c>
-      <c r="W7" s="9">
+      <c r="W7" s="8">
         <v>4620266.231253379</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="5">
         <v>2529242.3953956431</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7" s="5">
         <v>1429918.8348936653</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z7" s="10">
         <v>8579427.4615426883</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>1996</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>3608067.7416293188</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>1920150.1389985282</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>3664522.101698509</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>9192739.9823263567</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>1108.5131723305212</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>1157.794891183087</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>351.45211411275704</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>817.01807010624441</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>47995.087419083226</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>26677.680254843886</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>15454.848478258375</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="10">
         <v>90127.616152185481</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="14">
         <f t="shared" si="0"/>
         <v>0.31704820735135647</v>
       </c>
-      <c r="O8" s="54">
+      <c r="O8" s="53">
         <v>39.249100361438103</v>
       </c>
-      <c r="P8" s="36">
+      <c r="P8" s="35">
         <v>20.887680307396298</v>
       </c>
-      <c r="Q8" s="36">
+      <c r="Q8" s="35">
         <v>39.863219331165595</v>
       </c>
-      <c r="R8" s="37">
+      <c r="R8" s="36">
         <v>100</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="8">
         <v>103877.65446729626</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>108495.79477478453</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="5">
         <v>32934.224132719908</v>
       </c>
-      <c r="V8" s="11">
+      <c r="V8" s="10">
         <v>76561.941615546588</v>
       </c>
-      <c r="W8" s="9">
+      <c r="W8" s="8">
         <v>4497571.3699148204</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="5">
         <v>2499938.5850106999</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Y8" s="5">
         <v>1448258.3068397341</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8" s="10">
         <v>8445768.2617652528</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>1997</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>3904910.0086331065</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1956311.4299353105</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>3936469.6347288671</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>9797691.0732972845</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>1093.1519587912371</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>1175.6866403329439</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>346.37346014482597</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>809.59460613131819</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>51223.920298089448</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>27600.110550066987</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>16361.863297632923</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>95185.894145789352</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="14">
         <f t="shared" si="0"/>
         <v>0.31685755796278464</v>
       </c>
-      <c r="O9" s="54">
+      <c r="O9" s="53">
         <v>39.855410620932759</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="35">
         <v>19.96706586582485</v>
       </c>
-      <c r="Q9" s="36">
+      <c r="Q9" s="35">
         <v>40.177523513242392</v>
       </c>
-      <c r="R9" s="37">
+      <c r="R9" s="36">
         <v>100</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="8">
         <v>101899.54210993869</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>109593.11681348606</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="5">
         <v>32287.640070481109</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V9" s="10">
         <v>75467.384928514104</v>
       </c>
-      <c r="W9" s="9">
+      <c r="W9" s="8">
         <v>4774902.5023227641</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="5">
         <v>2572779.204773501</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9" s="5">
         <v>1525191.7765740468</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z9" s="10">
         <v>8872873.483670311</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>1998</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>4142027.5369849065</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>2008867.1707700083</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>4076084.4881538311</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>10226979.195908746</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>1089.0712300837658</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>1211.6847129501441</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>344.53759188620558</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>816.41321839471436</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>54131.556296939787</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>29209.363694033105</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>16852.372006478854</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="10">
         <v>100193.29199745174</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="14">
         <f t="shared" si="0"/>
         <v>0.31635909788903843</v>
       </c>
-      <c r="O10" s="54">
+      <c r="O10" s="53">
         <v>40.500987218610021</v>
       </c>
-      <c r="P10" s="36">
+      <c r="P10" s="35">
         <v>19.642820546399918</v>
       </c>
-      <c r="Q10" s="36">
+      <c r="Q10" s="35">
         <v>39.856192234990068</v>
       </c>
-      <c r="R10" s="37">
+      <c r="R10" s="36">
         <v>100</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="8">
         <v>100589.03983101666</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <v>111913.8936800318</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="5">
         <v>31822.257898464988</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V10" s="10">
         <v>75405.739748866574</v>
       </c>
-      <c r="W10" s="9">
+      <c r="W10" s="8">
         <v>4999710.8747873101</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="5">
         <v>2697841.7636023322</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="5">
         <v>1556522.5415755664</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10" s="10">
         <v>9254075.1799652092</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>1999</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>4127908.035968733</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>2085865.3073638394</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>4157918.4534031553</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>10371691.796735726</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>1080.8026061120452</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>1231.8175866206941</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>341.23804196249461</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>814.68862064885116</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>53537.445156790331</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>30832.866827193084</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>17026.079420148199</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="10">
         <v>101396.3914041316</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="14">
         <f t="shared" si="0"/>
         <v>0.31572651660234707</v>
       </c>
-      <c r="O11" s="54">
+      <c r="O11" s="53">
         <v>39.799756075165156</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="35">
         <v>20.111138551381963</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="35">
         <v>40.089105373452902</v>
       </c>
-      <c r="R11" s="37">
+      <c r="R11" s="36">
         <v>100</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="8">
         <v>101003.71844345194</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="5">
         <v>115116.4477112954</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="5">
         <v>31889.552188035315</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V11" s="10">
         <v>76134.69804177199</v>
       </c>
-      <c r="W11" s="9">
+      <c r="W11" s="8">
         <v>5003208.7323053833</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X11" s="5">
         <v>2881408.8550554547</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Y11" s="5">
         <v>1591129.8901607401</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="Z11" s="10">
         <v>9475747.4775215778</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>2000</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>4090694.3031575428</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>2106273.4468268463</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>4176467.6434673858</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>10373435.393451774</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>1077.7646750590152</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>1261.0706770727131</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>326.33469714302487</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>812.44944244577221</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>52905.669796900249</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>31873.9161802825</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>16355.115642702865</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <v>101134.70161988561</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="14">
         <f t="shared" si="0"/>
         <v>0.30278845159325318</v>
       </c>
-      <c r="O12" s="54">
+      <c r="O12" s="53">
         <v>39.434325736870079</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="35">
         <v>20.304492840977545</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="35">
         <v>40.261181422152383</v>
       </c>
-      <c r="R12" s="37">
+      <c r="R12" s="36">
         <v>100</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="8">
         <v>101674.65032380255</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="5">
         <v>118967.45466996137</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="5">
         <v>30785.909937829631</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="10">
         <v>76645.222169597473</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="8">
         <v>4991038.9542613728</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="5">
         <v>3006935.8896949934</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Y12" s="5">
         <v>1542916.2807605581</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z12" s="10">
         <v>9540891.1247169226</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>2001</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>4026503.9272484179</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>2145618.983486556</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>3941684.4487968343</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>10113807.359531809</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>1100.8553676810682</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>1208.7322865744406</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>314.36016766664414</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>817.21805564654778</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>53191.181535603857</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>31121.747280326781</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>14869.30301055332</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="10">
         <v>99182.231826483971</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="14">
         <f t="shared" si="0"/>
         <v>0.2855599172204048</v>
       </c>
-      <c r="O13" s="54">
+      <c r="O13" s="53">
         <v>39.811949981958264</v>
       </c>
-      <c r="P13" s="36">
+      <c r="P13" s="35">
         <v>21.214750362675304</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="35">
         <v>38.973299655366425</v>
       </c>
-      <c r="R13" s="37">
+      <c r="R13" s="36">
         <v>100</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="8">
         <v>104971.46506403075</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="5">
         <v>115258.01001378625</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="5">
         <v>29975.642874189238</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V13" s="10">
         <v>77925.383385013032</v>
       </c>
-      <c r="W13" s="9">
+      <c r="W13" s="8">
         <v>5072016.1959520783</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13" s="5">
         <v>2967597.2914135605</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Y13" s="5">
         <v>1417854.3043185524</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z13" s="10">
         <v>9457467.7916841917</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>2002</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>3633992.9896709649</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>2132198.3260079185</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>3616359.6561372932</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>9382550.9718161765</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>1153.0259179775733</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>1200.1777418241372</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>299.10465203184265</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <v>834.61044815661228</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>50281.057234073167</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>30708.20366435267</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>12980.039958851272</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="10">
         <v>93969.300857277107</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="14">
         <f t="shared" si="0"/>
         <v>0.25940843771879579</v>
       </c>
-      <c r="O14" s="54">
+      <c r="O14" s="53">
         <v>38.731396190513145</v>
       </c>
-      <c r="P14" s="36">
+      <c r="P14" s="35">
         <v>22.725145138169069</v>
       </c>
-      <c r="Q14" s="36">
+      <c r="Q14" s="35">
         <v>38.543458671317786</v>
       </c>
-      <c r="R14" s="37">
+      <c r="R14" s="36">
         <v>100</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="8">
         <v>87349.987609167321</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="5">
         <v>90922.076635553894</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="5">
         <v>22659.323820450263</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V14" s="10">
         <v>63227.730763272972</v>
       </c>
-      <c r="W14" s="9">
+      <c r="W14" s="8">
         <v>3809150.9114347165</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X14" s="5">
         <v>2326366.7951939004</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Y14" s="5">
         <v>983331.17399552523</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="Z14" s="10">
         <v>7118848.8806241425</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>2003</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>3863573.364462018</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>2160991.6545117856</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>3858790.2095104125</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>9883355.2284842152</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>1284.7979559365904</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>1308.2784056352634</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>336.11605656575125</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>919.53501780150327</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>59566.933935262277</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>33926.144596269463</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>15564.016180022027</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="10">
         <v>109057.09471155376</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="14">
         <f t="shared" si="0"/>
         <v>0.26161004927870529</v>
       </c>
-      <c r="O15" s="54">
+      <c r="O15" s="53">
         <v>39.091718097180689</v>
       </c>
-      <c r="P15" s="36">
+      <c r="P15" s="35">
         <v>21.864959869940961</v>
       </c>
-      <c r="Q15" s="36">
+      <c r="Q15" s="35">
         <v>39.043322032878358</v>
       </c>
-      <c r="R15" s="37">
+      <c r="R15" s="36">
         <v>100</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="8">
         <v>85798.631960852275</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="5">
         <v>87366.653183693619</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="5">
         <v>22445.784335324064</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V15" s="10">
         <v>61406.422856544988</v>
       </c>
-      <c r="W15" s="9">
+      <c r="W15" s="8">
         <v>3977871.7098147417</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="5">
         <v>2265583.3009510492</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="Y15" s="5">
         <v>1039362.8740551681</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="Z15" s="10">
         <v>7282817.8848209586</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>2004</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>4320041.0000000065</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>2214249.9999999972</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>4220090.9999999953</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>10754382</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>1481.2101191097086</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>1456.7761845757066</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>369.54848189241432</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>1039.9559299049847</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <v>76786.661330026007</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>38708.000000361048</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>18714.338669974069</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="10">
         <v>134209.00000036112</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="14">
         <f t="shared" si="0"/>
         <v>0.24949092443044743</v>
       </c>
-      <c r="O16" s="54">
+      <c r="O16" s="53">
         <v>40.170053472156809</v>
       </c>
-      <c r="P16" s="36">
+      <c r="P16" s="35">
         <v>20.589281652818332</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="35">
         <v>39.240664875024855</v>
       </c>
-      <c r="R16" s="37">
+      <c r="R16" s="36">
         <v>100</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="8">
         <v>94731.671999224942</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="5">
         <v>93168.985218961214</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="5">
         <v>23634.692419928564</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V16" s="10">
         <v>66510.998523708549</v>
       </c>
-      <c r="W16" s="9">
+      <c r="W16" s="8">
         <v>4910936.4844224527</v>
       </c>
-      <c r="X16" s="6">
+      <c r="X16" s="5">
         <v>2475593.1062530153</v>
       </c>
-      <c r="Y16" s="6">
+      <c r="Y16" s="5">
         <v>1196886.6332293039</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="Z16" s="10">
         <v>8583416.2239047717</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>2005</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>4838299.9974805089</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>2297734.1422170186</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>4303466.3399066366</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>11439500.479604164</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>1724.8141699031382</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>1795.4334846334889</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>417.96069390354489</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <v>1247.368887713043</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>100142.02072676041</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>49505.145812664508</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>21584.157331415114</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="10">
         <v>171231.32387084002</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="14">
         <f t="shared" si="0"/>
         <v>0.24232215921963154</v>
       </c>
-      <c r="O17" s="54">
+      <c r="O17" s="53">
         <v>42.294678916329104</v>
       </c>
-      <c r="P17" s="36">
+      <c r="P17" s="35">
         <v>20.085965696786491</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="35">
         <v>37.619355386884408</v>
       </c>
-      <c r="R17" s="37">
+      <c r="R17" s="36">
         <v>100</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="8">
         <v>100610.27067442033</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="5">
         <v>104729.5714627839</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="5">
         <v>24380.098029497112</v>
       </c>
-      <c r="V17" s="11">
+      <c r="V17" s="10">
         <v>72760.372458389291</v>
       </c>
-      <c r="W17" s="9">
+      <c r="W17" s="8">
         <v>5841392.0682067359</v>
       </c>
-      <c r="X17" s="6">
+      <c r="X17" s="5">
         <v>2887688.5445975489</v>
       </c>
-      <c r="Y17" s="6">
+      <c r="Y17" s="5">
         <v>1259027.1748027792</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="Z17" s="10">
         <v>9988107.7876070626</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>2006</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>5407471.1014582003</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>2397102.2962615974</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>4472022.2067102231</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>12276595.60443002</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>2075.9762176995596</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>2282.8779447554366</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>505.44825503299109</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>1544.2757747915368</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <v>134709.3768542984</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>65667.503561498554</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>27124.509850205624</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="10">
         <v>227501.39026600256</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="14">
         <f t="shared" si="0"/>
         <v>0.24347497371289289</v>
       </c>
-      <c r="O18" s="54">
+      <c r="O18" s="53">
         <v>44.04699214419761</v>
       </c>
-      <c r="P18" s="36">
+      <c r="P18" s="35">
         <v>19.525790157953896</v>
       </c>
-      <c r="Q18" s="36">
+      <c r="Q18" s="35">
         <v>36.427217697848505</v>
       </c>
-      <c r="R18" s="37">
+      <c r="R18" s="36">
         <v>100</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="8">
         <v>109195.50826316222</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="5">
         <v>120078.45530936109</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="5">
         <v>26586.373503939398</v>
       </c>
-      <c r="V18" s="11">
+      <c r="V18" s="10">
         <v>81228.280309353111</v>
       </c>
-      <c r="W18" s="9">
+      <c r="W18" s="8">
         <v>7085658.6641050773</v>
       </c>
-      <c r="X18" s="6">
+      <c r="X18" s="5">
         <v>3454084.0914433808</v>
       </c>
-      <c r="Y18" s="6">
+      <c r="Y18" s="5">
         <v>1426738.2324661114</v>
       </c>
-      <c r="Z18" s="11">
+      <c r="Z18" s="10">
         <v>11966480.98801457</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>2007</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>5943181.6114513334</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>2480946.4609180233</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>4511090.4228463061</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>12935218.495215662</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>2456.0462441607956</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>2906.7094129722632</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>562.42083301887999</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="10">
         <v>1882.0903990641104</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>175160.74650204662</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>86536.68517236771</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>30445.574801288531</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="10">
         <v>292143.00647570286</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="14">
         <f t="shared" si="0"/>
         <v>0.22899439876428429</v>
       </c>
-      <c r="O19" s="54">
+      <c r="O19" s="53">
         <v>45.945738092089691</v>
       </c>
-      <c r="P19" s="36">
+      <c r="P19" s="35">
         <v>19.17978008516554</v>
       </c>
-      <c r="Q19" s="36">
+      <c r="Q19" s="35">
         <v>34.874481822744777</v>
       </c>
-      <c r="R19" s="37">
+      <c r="R19" s="36">
         <v>100</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="8">
         <v>109625.04853538808</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="5">
         <v>129740.29346268775</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="5">
         <v>25103.522078866677</v>
       </c>
-      <c r="V19" s="11">
+      <c r="V19" s="10">
         <v>84006.663895650621</v>
       </c>
-      <c r="W19" s="9">
+      <c r="W19" s="8">
         <v>7818258.8713197391</v>
       </c>
-      <c r="X19" s="6">
+      <c r="X19" s="5">
         <v>3862544.6628566524</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="Y19" s="5">
         <v>1358931.096356235</v>
       </c>
-      <c r="Z19" s="11">
+      <c r="Z19" s="10">
         <v>13039734.630532626</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>2008</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>6340804.9730692264</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>2582732.2873470299</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>4300239.7116626035</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>13223776.97207886</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>3190.3740676518119</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>3841.2375695725682</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>715.30352888466189</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <v>2512.6259131094553</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <v>242754.47704941247</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>119050.65953166608</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>36911.719689626654</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="10">
         <v>398716.85627070518</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="14">
         <f t="shared" si="0"/>
         <v>0.22420679008688835</v>
       </c>
-      <c r="O20" s="54">
+      <c r="O20" s="53">
         <v>47.950029605440427</v>
       </c>
-      <c r="P20" s="36">
+      <c r="P20" s="35">
         <v>19.530972828718301</v>
       </c>
-      <c r="Q20" s="36">
+      <c r="Q20" s="35">
         <v>32.518997565841275</v>
       </c>
-      <c r="R20" s="37">
+      <c r="R20" s="36">
         <v>100</v>
       </c>
-      <c r="S20" s="9">
+      <c r="S20" s="8">
         <v>112074.15584814186</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="5">
         <v>134938.23886892176</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="5">
         <v>25127.786734409558</v>
       </c>
-      <c r="V20" s="11">
+      <c r="V20" s="10">
         <v>88265.646034784018</v>
       </c>
-      <c r="W20" s="9">
+      <c r="W20" s="8">
         <v>8527684.3770532031</v>
       </c>
-      <c r="X20" s="6">
+      <c r="X20" s="5">
         <v>4182112.155894123</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="Y20" s="5">
         <v>1296666.0765779607</v>
       </c>
-      <c r="Z20" s="11">
+      <c r="Z20" s="10">
         <v>14006462.609525288</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>2009</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>6264689.6315197218</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>2693742.0584060564</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>4297214.946743357</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>13255646.636669137</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>3866.570433946204</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>4649.7798889639116</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>855.23938847892248</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
         <v>3049.5169302196359</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <v>290674.36448500195</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>150303.6917907928</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <v>44101.769798583286</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="10">
         <v>485079.82607437804</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="14">
         <f t="shared" si="0"/>
         <v>0.22118810534793984</v>
       </c>
-      <c r="O21" s="54">
+      <c r="O21" s="53">
         <v>47.260535854883848</v>
       </c>
-      <c r="P21" s="36">
+      <c r="P21" s="35">
         <v>20.321468520097312</v>
       </c>
-      <c r="Q21" s="36">
+      <c r="Q21" s="35">
         <v>32.417995625018833</v>
       </c>
-      <c r="R21" s="37">
+      <c r="R21" s="36">
         <v>100</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S21" s="8">
         <v>118538.1313332243</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="5">
         <v>142549.121647853</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="5">
         <v>26219.224681081148</v>
       </c>
-      <c r="V21" s="11">
+      <c r="V21" s="10">
         <v>93489.5780518182</v>
       </c>
-      <c r="W21" s="9">
+      <c r="W21" s="8">
         <v>8911255.2276356798</v>
       </c>
-      <c r="X21" s="6">
+      <c r="X21" s="5">
         <v>4607886.7724599559</v>
       </c>
-      <c r="Y21" s="6">
+      <c r="Y21" s="5">
         <v>1352035.7302987706</v>
       </c>
-      <c r="Z21" s="11">
+      <c r="Z21" s="10">
         <v>14871177.730394408</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>2010</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>6449559.2252621232</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>2784126.437196407</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>4365885.1973091029</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>13599570.859767633</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>4911.7660655919526</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>5648.1954462033973</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>1067.527521652444</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
         <v>3828.4089657140348</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <v>380144.71368801623</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>188703.4831707268</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <v>55928.431254029732</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="10">
         <v>624776.62811277271</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="14">
         <f t="shared" si="0"/>
         <v>0.21734087238615027</v>
       </c>
-      <c r="O22" s="54">
+      <c r="O22" s="53">
         <v>47.424726057659754</v>
       </c>
-      <c r="P22" s="36">
+      <c r="P22" s="35">
         <v>20.472163908001267</v>
       </c>
-      <c r="Q22" s="36">
+      <c r="Q22" s="35">
         <v>32.103110034338982</v>
       </c>
-      <c r="R22" s="37">
+      <c r="R22" s="36">
         <v>100</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22" s="8">
         <v>122334.37762313076</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="5">
         <v>140676.17744368702</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="5">
         <v>26588.260355427981</v>
       </c>
-      <c r="V22" s="11">
+      <c r="V22" s="10">
         <v>95351.859566014668</v>
       </c>
-      <c r="W22" s="9">
+      <c r="W22" s="8">
         <v>9468033.7651915587</v>
       </c>
-      <c r="X22" s="6">
+      <c r="X22" s="5">
         <v>4699923.1764564225</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="Y22" s="5">
         <v>1392975.5076955617</v>
       </c>
-      <c r="Z22" s="11">
+      <c r="Z22" s="10">
         <v>15560932.449343542</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>2011</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>6781495.5785231981</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>2881463.3042582721</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>4408155.50869535</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>14071114.391476821</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>6541.7303057377603</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>7446.0561785141399</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>1403.0779409250665</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
         <v>5117.0956709809407</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <v>532352.58173102199</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>257466.45167800892</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <v>74219.82905301312</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="10">
         <v>864038.862462044</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="14">
         <f t="shared" si="0"/>
         <v>0.21448116558617908</v>
       </c>
-      <c r="O23" s="54">
+      <c r="O23" s="53">
         <v>48.194445655497596</v>
       </c>
-      <c r="P23" s="36">
+      <c r="P23" s="35">
         <v>20.477861412338719</v>
       </c>
-      <c r="Q23" s="36">
+      <c r="Q23" s="35">
         <v>31.327692932163675</v>
       </c>
-      <c r="R23" s="37">
+      <c r="R23" s="36">
         <v>100</v>
       </c>
-      <c r="S23" s="9">
+      <c r="S23" s="8">
         <v>131998.13198443264</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="5">
         <v>150245.49473599315</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="5">
         <v>28311.113203219422</v>
       </c>
-      <c r="V23" s="11">
+      <c r="V23" s="10">
         <v>103252.05078581054</v>
       </c>
-      <c r="W23" s="9">
+      <c r="W23" s="8">
         <v>10741736.981109019</v>
       </c>
-      <c r="X23" s="6">
+      <c r="X23" s="5">
         <v>5195122.5565427244</v>
       </c>
-      <c r="Y23" s="6">
+      <c r="Y23" s="5">
         <v>1497597.475488832</v>
       </c>
-      <c r="Z23" s="11">
+      <c r="Z23" s="10">
         <v>17434457.013140574</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>2012</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>6891497.0821112553</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>2959912.516641953</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>4461238.8085763752</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>14312648.407329584</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>8499.5628120107631</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>9402.7660851142846</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>1761.0914598792679</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>6585.973764476259</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <v>702896.5478183222</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>333976.38031663472</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <v>94279.794795189751</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="10">
         <v>1131152.7229301466</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="14">
         <f t="shared" si="0"/>
         <v>0.20719788756554197</v>
       </c>
-      <c r="O24" s="54">
+      <c r="O24" s="53">
         <v>48.149698685968438</v>
       </c>
-      <c r="P24" s="36">
+      <c r="P24" s="35">
         <v>20.680397033481</v>
       </c>
-      <c r="Q24" s="36">
+      <c r="Q24" s="35">
         <v>31.169904280550558</v>
       </c>
-      <c r="R24" s="37">
+      <c r="R24" s="36">
         <v>100</v>
       </c>
-      <c r="S24" s="9">
+      <c r="S24" s="8">
         <v>138695.91340395185</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="5">
         <v>153434.38945539197</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U24" s="5">
         <v>28737.500271272158</v>
       </c>
-      <c r="V24" s="11">
+      <c r="V24" s="10">
         <v>107469.95664620558</v>
       </c>
-      <c r="W24" s="9">
+      <c r="W24" s="8">
         <v>11469869.790289074</v>
       </c>
-      <c r="X24" s="6">
+      <c r="X24" s="5">
         <v>5449828.4379879693</v>
       </c>
-      <c r="Y24" s="6">
+      <c r="Y24" s="5">
         <v>1538458.2176600811</v>
       </c>
-      <c r="Z24" s="11">
+      <c r="Z24" s="10">
         <v>18458156.445937123</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <f>A24+1</f>
         <v>2013</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>6976930.7843542974</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>3072846.8785333321</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>4446902.1757475361</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>14496679.838635165</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>10832.531918138813</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>11650.230310033941</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>2343.4713765356805</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <v>8401.8125924984961</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <v>906933.90494595829</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>429592.48610858654</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <v>125054.25555742309</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="10">
         <v>1461580.6466119678</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="14">
         <f t="shared" si="0"/>
         <v>0.21633643863182109</v>
       </c>
-      <c r="O25" s="54">
+      <c r="O25" s="53">
         <v>48.127784168620792</v>
       </c>
-      <c r="P25" s="36">
+      <c r="P25" s="35">
         <v>21.19690103346198</v>
       </c>
-      <c r="Q25" s="36">
+      <c r="Q25" s="35">
         <v>30.675314797917231</v>
       </c>
-      <c r="R25" s="37">
+      <c r="R25" s="36">
         <v>100</v>
       </c>
-      <c r="S25" s="9">
+      <c r="S25" s="8">
         <v>140839.17647823531</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="5">
         <v>151470.48308248798</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="5">
         <v>30468.645859139968</v>
       </c>
-      <c r="V25" s="11">
+      <c r="V25" s="10">
         <v>109236.17630616354</v>
       </c>
-      <c r="W25" s="9">
+      <c r="W25" s="8">
         <v>11791502.232169289</v>
       </c>
-      <c r="X25" s="6">
+      <c r="X25" s="5">
         <v>5585347.2135595093</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="Y25" s="5">
         <v>1625893.0507570882</v>
       </c>
-      <c r="Z25" s="11">
+      <c r="Z25" s="10">
         <v>19002742.496485885</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <f>A25+1</f>
         <v>2014</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>7013924.7019147994</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>3168142.4167846371</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>4502201.0466042934</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>14684268.165303729</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>14428.195823975868</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>15518.571630065722</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>2969.6420420324644</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="10">
         <v>11150.249218379227</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="8">
         <v>1214379.3491261797</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>589980.54034946312</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <v>160439.10611614407</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="10">
         <v>1964798.9955917867</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="14">
         <f t="shared" si="0"/>
         <v>0.20582213315248329</v>
       </c>
-      <c r="O26" s="54">
+      <c r="O26" s="53">
         <v>47.764891126732721</v>
       </c>
-      <c r="P26" s="36">
+      <c r="P26" s="35">
         <v>21.575078724524964</v>
       </c>
-      <c r="Q26" s="36">
+      <c r="Q26" s="35">
         <v>30.660030148742312</v>
       </c>
-      <c r="R26" s="37">
+      <c r="R26" s="36">
         <v>100</v>
       </c>
-      <c r="S26" s="9">
+      <c r="S26" s="8">
         <v>136626.72450612823</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="5">
         <v>146951.95689722383</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U26" s="5">
         <v>28120.803883487974</v>
       </c>
-      <c r="V26" s="11">
+      <c r="V26" s="10">
         <v>105586.45354692535</v>
       </c>
-      <c r="W26" s="9">
+      <c r="W26" s="8">
         <v>11499474.695462892</v>
       </c>
-      <c r="X26" s="6">
+      <c r="X26" s="5">
         <v>5586776.734507231</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="Y26" s="5">
         <v>1519266.152107124</v>
       </c>
-      <c r="Z26" s="11">
+      <c r="Z26" s="10">
         <v>18605517.582077246</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <f>A26+1</f>
         <v>2015</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>7199106.574636098</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>3323205.7983780606</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>4522312.5606951742</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>15044624.933709335</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>18936.24565795494</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>20647.55487270188</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>3835.089660152034</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
         <v>14774.951174345577</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="8">
         <v>1635888.6073812919</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>823392.8889035047</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
         <v>208121.68969797279</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="10">
         <v>2667403.1859827698</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N27" s="14">
         <f t="shared" si="0"/>
         <v>0.20252639986960397</v>
       </c>
-      <c r="O27" s="54">
+      <c r="O27" s="53">
         <v>47.851685278677927</v>
       </c>
-      <c r="P27" s="36">
+      <c r="P27" s="35">
         <v>22.088990672888155</v>
       </c>
-      <c r="Q27" s="36">
+      <c r="Q27" s="35">
         <v>30.059324048433911</v>
       </c>
-      <c r="R27" s="37">
+      <c r="R27" s="36">
         <v>100</v>
       </c>
-      <c r="S27" s="9">
+      <c r="S27" s="8">
         <v>144910.11177130722</v>
       </c>
-      <c r="T27" s="6">
+      <c r="T27" s="5">
         <v>158005.94998885118</v>
       </c>
-      <c r="U27" s="6">
+      <c r="U27" s="5">
         <v>29348.123241744768</v>
       </c>
-      <c r="V27" s="11">
+      <c r="V27" s="10">
         <v>113065.6976448018</v>
       </c>
-      <c r="W27" s="9">
+      <c r="W27" s="8">
         <v>12518680.060608834</v>
       </c>
-      <c r="X27" s="6">
+      <c r="X27" s="5">
         <v>6301035.4701742083</v>
       </c>
-      <c r="Y27" s="6">
+      <c r="Y27" s="5">
         <v>1592656.6364276684</v>
       </c>
-      <c r="Z27" s="11">
+      <c r="Z27" s="10">
         <v>20412372.167210713</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <f>A27+1</f>
         <v>2016</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>7174260.8976617372</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>3420166.9108884563</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>4635505.7816443145</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>15229933.590194508</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>25432.01471474965</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>27511.51644202428</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>5087.7029012492594</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="10">
         <v>19706.846478130559</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="8">
         <v>2189470.9046014361</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>1129127.738440502</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="5">
         <v>283008.91456835397</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="10">
         <v>3601607.557610292</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N28" s="14">
         <f t="shared" si="0"/>
         <v>0.20005111503409817</v>
       </c>
-      <c r="O28" s="54">
+      <c r="O28" s="53">
         <v>47.10631766825788</v>
       </c>
-      <c r="P28" s="36">
+      <c r="P28" s="35">
         <v>22.456873436995568</v>
       </c>
-      <c r="Q28" s="36">
+      <c r="Q28" s="35">
         <v>30.436808894746548</v>
       </c>
-      <c r="R28" s="37">
+      <c r="R28" s="36">
         <v>100</v>
       </c>
-      <c r="S28" s="9">
+      <c r="S28" s="8">
         <v>138782.99828827009</v>
       </c>
-      <c r="T28" s="6">
+      <c r="T28" s="5">
         <v>150130.87960612067</v>
       </c>
-      <c r="U28" s="6">
+      <c r="U28" s="5">
         <v>27763.693555343765</v>
       </c>
-      <c r="V28" s="11">
+      <c r="V28" s="10">
         <v>107540.64401572586</v>
       </c>
-      <c r="W28" s="9">
+      <c r="W28" s="8">
         <v>11947985.254557502</v>
       </c>
-      <c r="X28" s="6">
+      <c r="X28" s="5">
         <v>6161672.0007771906</v>
       </c>
-      <c r="Y28" s="6">
+      <c r="Y28" s="5">
         <v>1544385.1439471643</v>
       </c>
-      <c r="Z28" s="11">
+      <c r="Z28" s="10">
         <v>19654042.399281856</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <f>A28+1</f>
         <v>2017</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>7245787.5892688567</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>3454483.3889148762</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>4686168.8473601807</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="11">
         <v>15386439.825543914</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>32822.288690999325</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>34657.036198173388</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>6506.7009151995553</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="11">
         <v>25219.413420637411</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="8">
         <v>2853879.9845837094</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>1436665.8702673384</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
         <v>365897.98953477759</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="10">
         <v>4656443.8443858251</v>
       </c>
-      <c r="N29" s="57">
+      <c r="N29" s="56">
         <f t="shared" si="0"/>
         <v>0.19824031701311104</v>
       </c>
-      <c r="O29" s="55">
+      <c r="O29" s="54">
         <v>47.09203474893333</v>
       </c>
-      <c r="P29" s="38">
+      <c r="P29" s="37">
         <v>22.451479537065421</v>
       </c>
-      <c r="Q29" s="38">
+      <c r="Q29" s="37">
         <v>30.456485714001246</v>
       </c>
-      <c r="R29" s="39">
+      <c r="R29" s="38">
         <v>100</v>
       </c>
-      <c r="S29" s="9">
+      <c r="S29" s="8">
         <v>142630.39789667985</v>
       </c>
-      <c r="T29" s="6">
+      <c r="T29" s="5">
         <v>150603.35704806104</v>
       </c>
-      <c r="U29" s="6">
+      <c r="U29" s="5">
         <v>28275.095294743976</v>
       </c>
-      <c r="V29" s="11">
+      <c r="V29" s="10">
         <v>109591.83878888928</v>
       </c>
-      <c r="W29" s="9">
+      <c r="W29" s="8">
         <v>12401634.803186899</v>
       </c>
-      <c r="X29" s="6">
+      <c r="X29" s="5">
         <v>6243081.5428481158</v>
       </c>
-      <c r="Y29" s="6">
+      <c r="Y29" s="5">
         <v>1590022.448716436</v>
       </c>
-      <c r="Z29" s="11">
+      <c r="Z29" s="10">
         <v>20234738.79475145</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>2018</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>7278556.6165184295</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>3490122.0566212926</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>4787756.6757836659</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="11">
         <v>15556435.348923387</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>41500.846371541636</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>43509.049613489195</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <v>8168.9741235753645</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="11">
         <v>31692.942695637601</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="8">
         <v>3624795.1193843908</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>1822222.7246240252</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="5">
         <v>469332.72473342373</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M30" s="10">
         <v>5916350.5687418394</v>
       </c>
-      <c r="N30" s="57">
+      <c r="N30" s="56">
         <f t="shared" si="0"/>
         <v>0.19683873553906778</v>
       </c>
-      <c r="O30" s="55">
+      <c r="O30" s="54">
         <v>46.788074859464231</v>
       </c>
-      <c r="P30" s="38">
+      <c r="P30" s="37">
         <v>22.435230040427182</v>
       </c>
-      <c r="Q30" s="38">
+      <c r="Q30" s="37">
         <v>30.776695100108597</v>
       </c>
-      <c r="R30" s="39">
+      <c r="R30" s="38">
         <v>100</v>
       </c>
-      <c r="S30" s="9">
+      <c r="S30" s="8">
         <v>134306.74791332812</v>
       </c>
-      <c r="T30" s="6">
+      <c r="T30" s="5">
         <v>140805.77793696467</v>
       </c>
-      <c r="U30" s="6">
+      <c r="U30" s="5">
         <v>26436.770433623831</v>
       </c>
-      <c r="V30" s="11">
+      <c r="V30" s="10">
         <v>102566.00617604301</v>
       </c>
-      <c r="W30" s="9">
+      <c r="W30" s="8">
         <v>11730711.224011524</v>
       </c>
-      <c r="X30" s="6">
+      <c r="X30" s="5">
         <v>5897152.2153302431</v>
       </c>
-      <c r="Y30" s="6">
+      <c r="Y30" s="5">
         <v>1518873.8895569132</v>
       </c>
-      <c r="Z30" s="11">
+      <c r="Z30" s="10">
         <v>19146737.328898679</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>2019</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>7159219.5630538212</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>3518004.2883161064</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>4902404.0927540921</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <v>15579627.944124021</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <v>59594.722604668343</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>64074.193962547848</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <v>10788.643893298913</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="11">
         <v>45248.531451638613</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="8">
         <v>5119820.4471132876</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>2704959.4695676952</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="5">
         <v>634683.50373330037</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="10">
         <v>8459463.420414282</v>
       </c>
-      <c r="N31" s="57">
+      <c r="N31" s="56">
         <f t="shared" si="0"/>
         <v>0.18103354494771634</v>
       </c>
-      <c r="O31" s="55">
+      <c r="O31" s="54">
         <v>45.952442437843821</v>
       </c>
-      <c r="P31" s="38">
+      <c r="P31" s="37">
         <v>22.580797827350874</v>
       </c>
-      <c r="Q31" s="38">
+      <c r="Q31" s="37">
         <v>31.466759734805301</v>
       </c>
-      <c r="R31" s="39">
+      <c r="R31" s="38">
         <v>100</v>
       </c>
-      <c r="S31" s="9">
+      <c r="S31" s="8">
         <v>125604.05407943431</v>
       </c>
-      <c r="T31" s="6">
+      <c r="T31" s="5">
         <v>135045.15453416316</v>
       </c>
-      <c r="U31" s="6">
+      <c r="U31" s="5">
         <v>22738.547169804664</v>
       </c>
-      <c r="V31" s="11">
+      <c r="V31" s="10">
         <v>95367.487976550998</v>
       </c>
-      <c r="W31" s="9">
+      <c r="W31" s="8">
         <v>10790724.013972273</v>
       </c>
-      <c r="X31" s="6">
+      <c r="X31" s="5">
         <v>5701073.1932099657</v>
       </c>
-      <c r="Y31" s="6">
+      <c r="Y31" s="5">
         <v>1337682.5605023883</v>
       </c>
-      <c r="Z31" s="11">
+      <c r="Z31" s="10">
         <v>17829479.767684624</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>2020</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>6875244.6166861588</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>3537763.4368516868</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>4114414.6323331352</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="11">
         <v>14527422.685870981</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>84325.833451123603</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>79415.553130669316</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>14613.408484529229</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="11">
         <v>63386.315265545381</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="8">
         <v>6957128.7897889335</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>3371441.2821964133</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="5">
         <v>721507.46036409901</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M32" s="10">
         <v>11050077.532349447</v>
       </c>
-      <c r="N32" s="57">
+      <c r="N32" s="56">
         <f t="shared" si="0"/>
         <v>0.17329693507268279</v>
       </c>
-      <c r="O32" s="55">
+      <c r="O32" s="54">
         <v>47.325976295663615</v>
       </c>
-      <c r="P32" s="38">
+      <c r="P32" s="37">
         <v>24.352312955638233</v>
       </c>
-      <c r="Q32" s="38">
+      <c r="Q32" s="37">
         <v>28.321710748698152</v>
       </c>
-      <c r="R32" s="39">
+      <c r="R32" s="38">
         <v>100</v>
       </c>
-      <c r="S32" s="9">
+      <c r="S32" s="8">
         <v>125147.44544560321</v>
       </c>
-      <c r="T32" s="6">
+      <c r="T32" s="5">
         <v>117860.12893324583</v>
       </c>
-      <c r="U32" s="6">
+      <c r="U32" s="5">
         <v>21687.668727898814</v>
       </c>
-      <c r="V32" s="11">
+      <c r="V32" s="10">
         <v>94071.236619208867</v>
       </c>
-      <c r="W32" s="9">
+      <c r="W32" s="8">
         <v>10325031.607102899</v>
       </c>
-      <c r="X32" s="6">
+      <c r="X32" s="5">
         <v>5003535.0576319527</v>
       </c>
-      <c r="Y32" s="6">
+      <c r="Y32" s="5">
         <v>1070784.7386631276</v>
       </c>
-      <c r="Z32" s="11">
+      <c r="Z32" s="10">
         <v>16399351.403397979</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>2021</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>6956275.0320849316</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>3597287.1130002523</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>4664285.1256589927</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>15217847.270744177</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <v>124614.23146841083</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <v>121661.49840640063</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <v>21290.6473080002</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="10">
         <v>92247.466540483481</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="8">
         <v>10402210.404073901</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <v>5251816.0843877485</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="5">
         <v>1191667.7946522841</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="10">
         <v>16845694.283113934</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="14">
         <f t="shared" si="0"/>
         <v>0.17085245446782929</v>
       </c>
-      <c r="O33" s="54">
+      <c r="O33" s="53">
         <v>45.711294825899238</v>
       </c>
-      <c r="P33" s="36">
+      <c r="P33" s="35">
         <v>23.638607018457343</v>
       </c>
-      <c r="Q33" s="36">
+      <c r="Q33" s="35">
         <v>30.650098155643413</v>
       </c>
-      <c r="R33" s="37">
+      <c r="R33" s="36">
         <v>100</v>
       </c>
-      <c r="S33" s="9">
+      <c r="S33" s="8">
         <v>124614.23146841083</v>
       </c>
-      <c r="T33" s="6">
+      <c r="T33" s="5">
         <v>121661.49840640061</v>
       </c>
-      <c r="U33" s="6">
+      <c r="U33" s="5">
         <v>21290.6473080002</v>
       </c>
-      <c r="V33" s="11">
+      <c r="V33" s="10">
         <v>92247.466540483481</v>
       </c>
-      <c r="W33" s="9">
+      <c r="W33" s="8">
         <v>10402210.404073901</v>
       </c>
-      <c r="X33" s="6">
+      <c r="X33" s="5">
         <v>5251816.0843877485</v>
       </c>
-      <c r="Y33" s="6">
+      <c r="Y33" s="5">
         <v>1191667.7946522841</v>
       </c>
-      <c r="Z33" s="11">
+      <c r="Z33" s="10">
         <v>16845694.283113934</v>
       </c>
     </row>
-    <row r="34" spans="1:26" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="41"/>
-      <c r="O34" s="16"/>
+    <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="40"/>
+      <c r="O34" s="15"/>
     </row>
     <row r="35" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
     </row>
     <row r="36" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F36" s="16"/>
+      <c r="F36" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="O3:R3"/>
     <mergeCell ref="S3:V3"/>
     <mergeCell ref="W3:Z3"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="O3:R3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.39370078740157483" bottom="1" header="0" footer="0"/>
@@ -4312,14 +4415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="B3:G4"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4330,1113 +4433,1113 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="70" t="s">
+      <c r="B3" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="70" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="61"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74"/>
-    </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
-      <c r="B5" s="7" t="s">
+      <c r="A4" s="65"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="76"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="66"/>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>4</v>
+      <c r="K5" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>1993</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>208284.69458476687</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>236504.98062276683</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>25.136281328482919</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>11.872831251384259</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>7.6888236468380677</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>44.697936226705245</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>22.136965850417504</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="21">
         <v>10.456139336005988</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>6.7713765722007695</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>39.364481758624258</v>
       </c>
-      <c r="N6" s="40"/>
+      <c r="N6" s="39"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>1994</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>229126.20856418725</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>259328.2545874005</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>22.392537830927676</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <v>11.60857408649137</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <v>6.7939033858764235</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <v>40.795015303295465</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <v>19.784644374727783</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="26">
         <v>10.256609221028048</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="26">
         <v>6.0026676485134915</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="27">
         <v>36.043921244269313</v>
       </c>
-      <c r="N7" s="40"/>
+      <c r="N7" s="39"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>1995</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>233110.17183388173</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>261831.04121445352</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>21.117812316905987</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <v>11.560387115492556</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <v>6.5357180890205049</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>39.213917521419049</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <v>18.801349278971102</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="26">
         <v>10.292300769454764</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="26">
         <v>5.8187996340033532</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="27">
         <v>34.912449682429219</v>
       </c>
-      <c r="N8" s="40"/>
+      <c r="N8" s="39"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>1996</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>247290.24532614238</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>278182.36094469059</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>19.408403010714878</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <v>10.788003473270704</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="26">
         <v>6.2496797873589882</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <v>36.446086271344569</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <v>17.253102337651743</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="26">
         <v>9.5899970667615619</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="26">
         <v>5.5556536459661343</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="27">
         <v>32.398753050379433</v>
       </c>
-      <c r="N9" s="40"/>
+      <c r="N9" s="39"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>1997</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>266556.8964361705</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>301546.23370302992</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="25">
         <v>19.216880517047695</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <v>10.354303684908068</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <v>6.1382254657031243</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <v>35.709409667658889</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="25">
         <v>16.987086745887204</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="26">
         <v>9.1528619711590391</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="26">
         <v>5.4259882793782408</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="27">
         <v>31.565936996424483</v>
       </c>
-      <c r="N10" s="40"/>
+      <c r="N10" s="39"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>1998</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>274517.32636286359</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>310074.15392418578</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>19.718812292885072</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <v>10.640262340098515</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="26">
         <v>6.1389101481350528</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <v>36.497984781118639</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <v>17.457616383652262</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="26">
         <v>9.4201220335103759</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="26">
         <v>5.4349489608215844</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="27">
         <v>32.312687377984226</v>
       </c>
-      <c r="N11" s="40"/>
+      <c r="N11" s="39"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>1999</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>263830.1430097085</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>296231.75076924328</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <v>20.292391364401542</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="26">
         <v>11.686635376632641</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="26">
         <v>6.4534246261321506</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <v>38.43245136716633</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="25">
         <v>18.072824745411772</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="26">
         <v>10.408359923312567</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="26">
         <v>5.7475538580640073</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="27">
         <v>34.228738526788341</v>
       </c>
-      <c r="N12" s="40"/>
+      <c r="N12" s="39"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>2000</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>266928.26842131128</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>299121.0244591193</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>19.820182444444431</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <v>11.941004363754274</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="26">
         <v>6.1271575841073744</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>37.888344392306081</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="25">
         <v>17.68704486505623</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="26">
         <v>10.655859526396711</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="26">
         <v>5.4677252032941297</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="27">
         <v>33.81062959474707</v>
       </c>
-      <c r="N13" s="40"/>
+      <c r="N13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>2001</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>254299.40741917668</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>284874.36993125395</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="25">
         <v>20.916754024489606</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="26">
         <v>12.238230358526543</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="26">
         <v>5.847163845743208</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="27">
         <v>39.00214822875936</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <v>18.671803134988938</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="26">
         <v>10.924727025403197</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="26">
         <v>5.2196001395778735</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="27">
         <v>34.816130299970013</v>
       </c>
-      <c r="N14" s="40"/>
+      <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>2002</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>294958.72490319452</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>333830.7177801787</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="25">
         <v>17.046811295572091</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="26">
         <v>10.411017227726051</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="26">
         <v>4.4006292619793914</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="27">
         <v>31.858457785277526</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="25">
         <v>15.061842591484437</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="26">
         <v>9.1987351758843978</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="26">
         <v>3.8882101818438368</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="27">
         <v>28.148787949212672</v>
       </c>
-      <c r="N15" s="40"/>
+      <c r="N15" s="39"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>2003</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>349730.97627375071</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="24">
         <v>404410.04057342897</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="25">
         <v>17.032215610388615</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="26">
         <v>9.7006404630609246</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="26">
         <v>4.4502824273247521</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="27">
         <v>31.183138500774287</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="25">
         <v>14.729341005183741</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="26">
         <v>8.3890460652668857</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="26">
         <v>3.8485731358086936</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="27">
         <v>26.966960206259323</v>
       </c>
-      <c r="N16" s="40"/>
+      <c r="N16" s="39"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>2004</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>412427.45938339265</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="24">
         <v>485115.19472475466</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>18.618222328073724</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="26">
         <v>9.3854080565421523</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="26">
         <v>4.5376073401982717</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="27">
         <v>32.541237724814145</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <v>15.828541790696399</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="26">
         <v>7.9791357643050631</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="26">
         <v>3.857710266237329</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="27">
         <v>27.665387821238792</v>
       </c>
-      <c r="N17" s="40"/>
+      <c r="N17" s="39"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>2005</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>495455.78952992911</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="24">
         <v>582538.17293727468</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="25">
         <v>20.212100220237939</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="26">
         <v>9.9918392031775909</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="26">
         <v>4.3564244858039496</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="27">
         <v>34.560363909219468</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="25">
         <v>17.190636661941689</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="26">
         <v>8.4981805678157727</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="26">
         <v>3.7051919228886669</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="27">
         <v>29.394009152646124</v>
       </c>
-      <c r="N18" s="40"/>
+      <c r="N18" s="39"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>2006</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="23">
         <v>607716.71306376578</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>715904.27173384849</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="25">
         <v>22.166475589451785</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="26">
         <v>10.805610928559121</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="26">
         <v>4.46334768603929</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="27">
         <v>37.435434204050196</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="25">
         <v>18.816674543377953</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="26">
         <v>9.1726654183049412</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="26">
         <v>3.7888459283128424</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="27">
         <v>31.778185889995736</v>
       </c>
-      <c r="N19" s="40"/>
+      <c r="N19" s="39"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>2007</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>756835.28175103571</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="24">
         <v>896980.17407190299</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="25">
         <v>23.143839977543028</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="26">
         <v>11.434018373476718</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="26">
         <v>4.0227478204833131</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <v>38.60060617150306</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="25">
         <v>19.527828102029545</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="26">
         <v>9.6475582932372408</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="26">
         <v>3.3942305171672587</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="27">
         <v>32.569616912434043</v>
       </c>
-      <c r="N20" s="40"/>
+      <c r="N20" s="39"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>2008</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>963939.23656174331</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <v>1149646.0905836353</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="25">
         <v>25.183587081203257</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="26">
         <v>12.35043195837796</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="26">
         <v>3.8292579334446817</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="27">
         <v>41.36327697302589</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="25">
         <v>21.115583224936159</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="26">
         <v>10.355418115781024</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="26">
         <v>3.2107028408097191</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="27">
         <v>34.681704181526904</v>
       </c>
-      <c r="N21" s="40"/>
+      <c r="N21" s="39"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>2009</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <v>1046561.2714321063</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="24">
         <v>1247929.2689250195</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="25">
         <v>27.774232853776965</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="26">
         <v>14.361671494409341</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="26">
         <v>4.2139692154129467</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="27">
         <v>46.349873563599253</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="25">
         <v>23.292535219996253</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="26">
         <v>12.044247661589514</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="26">
         <v>3.5339959480694807</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="27">
         <v>38.870778829655251</v>
       </c>
-      <c r="N22" s="40"/>
+      <c r="N22" s="39"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>2010</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="23">
         <v>1393953.2748735524</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <v>1661720.9259445816</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <v>27.270979633266386</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <v>13.537288987526816</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="26">
         <v>4.0122170708414231</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="27">
         <v>44.820485691634616</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="25">
         <v>22.876567764946955</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="26">
         <v>11.355907013294726</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="26">
         <v>3.3656933833361951</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="27">
         <v>37.598168161577874</v>
       </c>
-      <c r="N23" s="40"/>
+      <c r="N23" s="39"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>2011</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="23">
         <v>1830888.65964224</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="24">
         <v>2179024.1036307774</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="25">
         <v>29.076185431999175</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="26">
         <v>14.062376230366649</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="26">
         <v>4.0537598319886836</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <v>47.192321494354502</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="25">
         <v>24.430779854339139</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="26">
         <v>11.815677084480523</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="26">
         <v>3.4061040871161117</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K24" s="27">
         <v>39.652561025935775</v>
       </c>
-      <c r="N24" s="40"/>
+      <c r="N24" s="39"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>2012</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="23">
         <v>2212389.8336669565</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="24">
         <v>2637913.8482155497</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="25">
         <v>31.770917454149412</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="26">
         <v>15.095729298442892</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="26">
         <v>4.2614458519240426</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="27">
         <v>51.12809260451634</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="25">
         <v>26.64592508560526</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="26">
         <v>12.660625006482199</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="26">
         <v>3.5740285778842438</v>
       </c>
-      <c r="K25" s="28">
+      <c r="K25" s="27">
         <v>42.880578669971698</v>
       </c>
-      <c r="N25" s="40"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <f>A25+1</f>
         <v>2013</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="23">
         <v>2811838.9377571754</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="24">
         <v>3348308.4882272054</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="25">
         <v>32.254119991288036</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="26">
         <v>15.277990511478054</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="26">
         <v>4.447418871621819</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="27">
         <v>51.979529374387901</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="25">
         <v>27.086330549732089</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="26">
         <v>12.830134607341348</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="26">
         <v>3.7348486854517486</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K26" s="27">
         <v>43.651313842525184</v>
       </c>
-      <c r="N26" s="40"/>
+      <c r="N26" s="39"/>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <f>A26+1</f>
         <v>2014</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="23">
         <v>3843256.6103745676</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="24">
         <v>4579086.4254100993</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="25">
         <v>31.597665007537064</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="26">
         <v>15.351057713837198</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="26">
         <v>4.1745613780524407</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="27">
         <v>51.123284099426691</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="25">
         <v>26.520122930796635</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="26">
         <v>12.884241211861927</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="26">
         <v>3.503736143214971</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="27">
         <v>42.90810028587353</v>
       </c>
-      <c r="N27" s="40"/>
+      <c r="N27" s="39"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <f>A27+1</f>
         <v>2015</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="23">
         <v>5009211.0525861969</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="24">
         <v>5954510.895692341</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="25">
         <v>32.657609955098657</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="26">
         <v>16.437576302128388</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="26">
         <v>4.1547798148876565</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="27">
         <v>53.249966072114709</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="25">
         <v>27.473097892301102</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="26">
         <v>13.828052434989582</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="26">
         <v>3.4951937000994291</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="27">
         <v>44.79634402739012</v>
       </c>
-      <c r="N28" s="40"/>
+      <c r="N28" s="39"/>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <f>A28+1</f>
         <v>2016</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="23">
         <v>6947932.7140928917</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="24">
         <v>8228159.5565364286</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="25">
         <v>31.512551930164872</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="26">
         <v>16.251276241495937</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="26">
         <v>4.07328231596588</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="27">
         <v>51.837110487626688</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="25">
         <v>26.609485262863263</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="26">
         <v>13.722725363821194</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="26">
         <v>3.4395166090761138</v>
       </c>
-      <c r="K29" s="28">
+      <c r="K29" s="27">
         <v>43.771727235760572</v>
       </c>
-      <c r="N29" s="40"/>
+      <c r="N29" s="39"/>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <f>A29+1</f>
         <v>2017</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="28">
         <v>8993361.372061966</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="29">
         <v>10660228.494808454</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="30">
         <v>31.733184807288378</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="31">
         <v>15.974737485033859</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="31">
         <v>4.0685342709728767</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="32">
         <v>51.776456563295113</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="30">
         <v>26.771283429558313</v>
       </c>
-      <c r="I30" s="32">
+      <c r="I30" s="31">
         <v>13.476876888398747</v>
       </c>
-      <c r="J30" s="32">
+      <c r="J30" s="31">
         <v>3.4323653542039025</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="32">
         <v>43.680525672160961</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42">
+    <row r="31" spans="1:14" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="41">
         <v>2018</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B31" s="42">
         <v>12478123.591775578</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="43">
         <v>14744810.677265817</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="44">
         <v>29.049200328273074</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="45">
         <v>14.603339285924893</v>
       </c>
-      <c r="F31" s="46">
+      <c r="F31" s="45">
         <v>3.7612443993002636</v>
       </c>
-      <c r="G31" s="47">
+      <c r="G31" s="46">
         <v>47.41378401349823</v>
       </c>
-      <c r="H31" s="48">
+      <c r="H31" s="47">
         <v>24.583531106121665</v>
       </c>
-      <c r="I31" s="49">
+      <c r="I31" s="48">
         <v>12.358400284064729</v>
       </c>
-      <c r="J31" s="49">
+      <c r="J31" s="48">
         <v>3.1830366289955907</v>
       </c>
-      <c r="K31" s="50">
+      <c r="K31" s="49">
         <v>40.124968019181985</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42">
+    <row r="32" spans="1:14" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="41">
         <v>2019</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="42">
         <v>18340548.037806135</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="43">
         <v>21802256.301990129</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D32" s="44">
         <v>27.915307855357369</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E32" s="45">
         <v>14.748520404035089</v>
       </c>
-      <c r="F32" s="46">
+      <c r="F32" s="45">
         <v>3.4605481931346915</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="46">
         <v>46.124376452527144</v>
       </c>
-      <c r="H32" s="48">
+      <c r="H32" s="47">
         <v>23.482984403985498</v>
       </c>
-      <c r="I32" s="49">
+      <c r="I32" s="48">
         <v>12.406786857747306</v>
       </c>
-      <c r="J32" s="49">
+      <c r="J32" s="48">
         <v>2.9110909207840376</v>
       </c>
-      <c r="K32" s="50">
+      <c r="K32" s="49">
         <v>38.800862182516838</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42">
+    <row r="33" spans="1:11" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="41">
         <v>2020</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="42">
         <v>23044918.021978933</v>
       </c>
-      <c r="C33" s="44">
+      <c r="C33" s="43">
         <v>27481439.972801309</v>
       </c>
-      <c r="D33" s="45">
+      <c r="D33" s="44">
         <v>30.189427374632533</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="45">
         <v>14.629868845621077</v>
       </c>
-      <c r="F33" s="46">
+      <c r="F33" s="45">
         <v>3.1308744933523571</v>
       </c>
-      <c r="G33" s="47">
+      <c r="G33" s="46">
         <v>47.950170713605971</v>
       </c>
-      <c r="H33" s="48">
+      <c r="H33" s="47">
         <v>25.315735990088157</v>
       </c>
-      <c r="I33" s="49">
+      <c r="I33" s="48">
         <v>12.268066322336701</v>
       </c>
-      <c r="J33" s="49">
+      <c r="J33" s="48">
         <v>2.6254354250657284</v>
       </c>
-      <c r="K33" s="50">
+      <c r="K33" s="49">
         <v>40.209237737490589</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="42">
+    <row r="34" spans="1:11" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="41">
         <v>2021</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="42">
         <v>39092903.57329683</v>
       </c>
-      <c r="C34" s="44">
+      <c r="C34" s="43">
         <v>46687235.680271797</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D34" s="44">
         <v>26.608948052605985</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="45">
         <v>13.434192920822346</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="45">
         <v>3.0482969688295962</v>
       </c>
-      <c r="G34" s="47">
+      <c r="G34" s="46">
         <v>43.091437942257926</v>
       </c>
-      <c r="H34" s="45">
+      <c r="H34" s="44">
         <v>22.280630353254068</v>
       </c>
-      <c r="I34" s="46">
+      <c r="I34" s="45">
         <v>11.248933477993345</v>
       </c>
-      <c r="J34" s="46">
+      <c r="J34" s="45">
         <v>2.5524488166598318</v>
       </c>
-      <c r="K34" s="47">
+      <c r="K34" s="46">
         <v>36.082012647907248</v>
       </c>
     </row>
@@ -5452,4 +5555,97 @@
   <pageSetup paperSize="9" scale="41" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="94.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/crudo/datos/Puestos y salarios_para ceped.data.xlsx
+++ b/crudo/datos/Puestos y salarios_para ceped.data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\ceped-data\crudo\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFA0455-BF75-465E-AACB-908DB50A26E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F31060D-D170-4C00-9847-F0080BD43664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Síntesis Puestos, W y Masa W" sheetId="14" r:id="rId1"/>
     <sheet name="Sintesis Participación" sheetId="15" r:id="rId2"/>
     <sheet name="Diccionario" sheetId="16" r:id="rId3"/>
+    <sheet name="Actualizaciones" sheetId="17" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Sintesis Participación'!#REF!</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Año</t>
   </si>
@@ -83,12 +84,6 @@
     <t>CEPED  (en base a CGI93 y CGI04)</t>
   </si>
   <si>
-    <t>MASA SALARIAL (en millones de $ de 2021)</t>
-  </si>
-  <si>
-    <t>SALARIO - en $ de 2021</t>
-  </si>
-  <si>
     <t>Brecha salarial - Privado no registrdo / Privado registrado</t>
   </si>
   <si>
@@ -113,12 +108,6 @@
     <t>puestos.composicion</t>
   </si>
   <si>
-    <t>salario.real.2021</t>
-  </si>
-  <si>
-    <t>masa.salarial.real.2021</t>
-  </si>
-  <si>
     <t>particip.vab.pb</t>
   </si>
   <si>
@@ -137,30 +126,44 @@
     <t>Porcentaje del total de puestos de trabajo (por sector)</t>
   </si>
   <si>
-    <t>Salario real promedio en $ de 2021 (del sector o del total de la economía)</t>
-  </si>
-  <si>
-    <t>Masa salarial real en millones de $ de 2021 (del sector o del total de la economía)</t>
-  </si>
-  <si>
     <t>Participación en el Valor Agregado Bruto a precios básicos (por sector o total de la economía)</t>
   </si>
   <si>
     <t>Participación en el Producto Interno Bruto a precios de mercado (por sector o total de la economía)</t>
+  </si>
+  <si>
+    <t>SALARIO - en $ de 2022</t>
+  </si>
+  <si>
+    <t>MASA SALARIAL (en millones de $ de 2022)</t>
+  </si>
+  <si>
+    <t>Actualizaciones</t>
+  </si>
+  <si>
+    <t>salario.real</t>
+  </si>
+  <si>
+    <t>masa.salarial.real</t>
+  </si>
+  <si>
+    <t>Salario real promedio en $ del último año de la serie (del sector o del total de la economía)</t>
+  </si>
+  <si>
+    <t>Masa salarial real en millones de $ del último año de la serie (del sector o del total de la economía)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1302,9 +1305,6 @@
     <xf numFmtId="167" fontId="21" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1362,6 +1362,13 @@
     <xf numFmtId="0" fontId="26" fillId="27" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1371,20 +1378,14 @@
     <xf numFmtId="0" fontId="20" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1567,9 +1568,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1607,9 +1608,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1642,26 +1643,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1694,26 +1678,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1889,11 +1856,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:Z36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="N23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="W3" sqref="W3:Z3"/>
+      <selection pane="bottomRight" activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1906,51 +1873,51 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:26" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="60" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="60" t="s">
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="67" t="s">
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="62"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="64"/>
     </row>
     <row r="4" spans="1:26" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1987,8 +1954,8 @@
       <c r="M4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="64"/>
-      <c r="O4" s="51" t="s">
+      <c r="N4" s="67"/>
+      <c r="O4" s="50" t="s">
         <v>1</v>
       </c>
       <c r="P4" s="7" t="s">
@@ -2065,11 +2032,10 @@
       <c r="M5" s="17">
         <v>93098.959955486891</v>
       </c>
-      <c r="N5" s="55">
-        <f>H5/F5</f>
+      <c r="N5" s="54">
         <v>0.31523174544119287</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="51">
         <v>40.504531329365953</v>
       </c>
       <c r="P5" s="33">
@@ -2082,28 +2048,28 @@
         <v>100</v>
       </c>
       <c r="S5" s="8">
-        <v>117734.40306824114</v>
+        <v>203010.32308613931</v>
       </c>
       <c r="T5" s="5">
-        <v>111553.74392215883</v>
+        <v>192352.96570008964</v>
       </c>
       <c r="U5" s="5">
-        <v>37113.621377678581</v>
+        <v>63995.298489024186</v>
       </c>
       <c r="V5" s="10">
-        <v>84799.529129996867</v>
+        <v>146220.47046227343</v>
       </c>
       <c r="W5" s="8">
-        <v>5291863.4504947029</v>
+        <v>9124800.2352377418</v>
       </c>
       <c r="X5" s="5">
-        <v>2499550.3882229854</v>
+        <v>4309993.6693025436</v>
       </c>
       <c r="Y5" s="5">
-        <v>1618704.2268617654</v>
+        <v>2791143.9605773981</v>
       </c>
       <c r="Z5" s="10">
-        <v>9410118.0655794535</v>
+        <v>16225937.86511768</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2147,10 +2113,9 @@
         <v>93472.071847620871</v>
       </c>
       <c r="N6" s="14">
-        <f t="shared" ref="N6:N33" si="0">H6/F6</f>
         <v>0.3134997824246335</v>
       </c>
-      <c r="O6" s="53">
+      <c r="O6" s="52">
         <v>40.338874440245114</v>
       </c>
       <c r="P6" s="35">
@@ -2163,28 +2128,28 @@
         <v>100</v>
       </c>
       <c r="S6" s="8">
-        <v>112440.12615556938</v>
+        <v>193881.36129978692</v>
       </c>
       <c r="T6" s="5">
-        <v>114023.5644708818</v>
+        <v>196611.69598192928</v>
       </c>
       <c r="U6" s="5">
-        <v>35249.955085569345</v>
+        <v>60781.764583674965</v>
       </c>
       <c r="V6" s="10">
-        <v>82632.117901922567</v>
+        <v>142483.1868628751</v>
       </c>
       <c r="W6" s="8">
-        <v>4978002.0845957976</v>
+        <v>8583606.704418527</v>
       </c>
       <c r="X6" s="5">
-        <v>2580659.0766110043</v>
+        <v>4449849.9951141309</v>
       </c>
       <c r="Y6" s="5">
-        <v>1510327.4793053765</v>
+        <v>2604269.1137775644</v>
       </c>
       <c r="Z6" s="10">
-        <v>9068988.6405121777</v>
+        <v>15637725.813310221</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2228,10 +2193,9 @@
         <v>91411.630516976598</v>
       </c>
       <c r="N7" s="14">
-        <f t="shared" si="0"/>
         <v>0.30617143849399642</v>
       </c>
-      <c r="O7" s="53">
+      <c r="O7" s="52">
         <v>39.212769960889183</v>
       </c>
       <c r="P7" s="35">
@@ -2244,28 +2208,28 @@
         <v>100</v>
       </c>
       <c r="S7" s="8">
-        <v>109276.08482527053</v>
+        <v>188425.58086533259</v>
       </c>
       <c r="T7" s="5">
-        <v>110910.6123004664</v>
+        <v>191244.00897287866</v>
       </c>
       <c r="U7" s="5">
-        <v>33457.216083945052</v>
+        <v>57690.531142605731</v>
       </c>
       <c r="V7" s="10">
-        <v>79569.009794145823</v>
+        <v>137201.44634861691</v>
       </c>
       <c r="W7" s="8">
-        <v>4620266.231253379</v>
+        <v>7966760.0625372594</v>
       </c>
       <c r="X7" s="5">
-        <v>2529242.3953956431</v>
+        <v>4361191.8221967602</v>
       </c>
       <c r="Y7" s="5">
-        <v>1429918.8348936653</v>
+        <v>2465619.8790973797</v>
       </c>
       <c r="Z7" s="10">
-        <v>8579427.4615426883</v>
+        <v>14793571.763831399</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2309,10 +2273,9 @@
         <v>90127.616152185481</v>
       </c>
       <c r="N8" s="14">
-        <f t="shared" si="0"/>
         <v>0.31704820735135647</v>
       </c>
-      <c r="O8" s="53">
+      <c r="O8" s="52">
         <v>39.249100361438103</v>
       </c>
       <c r="P8" s="35">
@@ -2325,28 +2288,28 @@
         <v>100</v>
       </c>
       <c r="S8" s="8">
-        <v>103877.65446729626</v>
+        <v>179117.02650424963</v>
       </c>
       <c r="T8" s="5">
-        <v>108495.79477478453</v>
+        <v>187080.12082033418</v>
       </c>
       <c r="U8" s="5">
-        <v>32934.224132719908</v>
+        <v>56788.732159277752</v>
       </c>
       <c r="V8" s="10">
-        <v>76561.941615546588</v>
+        <v>132016.33590875982</v>
       </c>
       <c r="W8" s="8">
-        <v>4497571.3699148204</v>
+        <v>7755196.383678562</v>
       </c>
       <c r="X8" s="5">
-        <v>2499938.5850106999</v>
+        <v>4310663.0399643136</v>
       </c>
       <c r="Y8" s="5">
-        <v>1448258.3068397341</v>
+        <v>2497242.7695013224</v>
       </c>
       <c r="Z8" s="10">
-        <v>8445768.2617652528</v>
+        <v>14563102.193144197</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2390,10 +2353,9 @@
         <v>95185.894145789352</v>
       </c>
       <c r="N9" s="14">
-        <f t="shared" si="0"/>
         <v>0.31685755796278464</v>
       </c>
-      <c r="O9" s="53">
+      <c r="O9" s="52">
         <v>39.855410620932759</v>
       </c>
       <c r="P9" s="35">
@@ -2406,28 +2368,28 @@
         <v>100</v>
       </c>
       <c r="S9" s="8">
-        <v>101899.54210993869</v>
+        <v>175706.15238162733</v>
       </c>
       <c r="T9" s="5">
-        <v>109593.11681348606</v>
+        <v>188972.24152423086</v>
       </c>
       <c r="U9" s="5">
-        <v>32287.640070481109</v>
+        <v>55673.822362679355</v>
       </c>
       <c r="V9" s="10">
-        <v>75467.384928514104</v>
+        <v>130128.98352169449</v>
       </c>
       <c r="W9" s="8">
-        <v>4774902.5023227641</v>
+        <v>8233400.5561611643</v>
       </c>
       <c r="X9" s="5">
-        <v>2572779.204773501</v>
+        <v>4436262.6724121878</v>
       </c>
       <c r="Y9" s="5">
-        <v>1525191.7765740468</v>
+        <v>2629899.7341597145</v>
       </c>
       <c r="Z9" s="10">
-        <v>8872873.483670311</v>
+        <v>15299562.962733066</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2471,10 +2433,9 @@
         <v>100193.29199745174</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="0"/>
         <v>0.31635909788903843</v>
       </c>
-      <c r="O10" s="53">
+      <c r="O10" s="52">
         <v>40.500987218610021</v>
       </c>
       <c r="P10" s="35">
@@ -2487,28 +2448,28 @@
         <v>100</v>
       </c>
       <c r="S10" s="8">
-        <v>100589.03983101666</v>
+        <v>173446.4433746103</v>
       </c>
       <c r="T10" s="5">
-        <v>111913.8936800318</v>
+        <v>192973.97465583906</v>
       </c>
       <c r="U10" s="5">
-        <v>31822.257898464988</v>
+        <v>54871.360358053906</v>
       </c>
       <c r="V10" s="10">
-        <v>75405.739748866574</v>
+        <v>130022.6882714464</v>
       </c>
       <c r="W10" s="8">
-        <v>4999710.8747873101</v>
+        <v>8621039.3357967474</v>
       </c>
       <c r="X10" s="5">
-        <v>2697841.7636023322</v>
+        <v>4651908.9899894241</v>
       </c>
       <c r="Y10" s="5">
-        <v>1556522.5415755664</v>
+        <v>2683923.6095923507</v>
       </c>
       <c r="Z10" s="10">
-        <v>9254075.1799652092</v>
+        <v>15956871.935378522</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2552,10 +2513,9 @@
         <v>101396.3914041316</v>
       </c>
       <c r="N11" s="14">
-        <f t="shared" si="0"/>
         <v>0.31572651660234707</v>
       </c>
-      <c r="O11" s="53">
+      <c r="O11" s="52">
         <v>39.799756075165156</v>
       </c>
       <c r="P11" s="35">
@@ -2568,28 +2528,28 @@
         <v>100</v>
       </c>
       <c r="S11" s="8">
-        <v>101003.71844345194</v>
+        <v>174161.4768473549</v>
       </c>
       <c r="T11" s="5">
-        <v>115116.4477112954</v>
+        <v>198496.16283231284</v>
       </c>
       <c r="U11" s="5">
-        <v>31889.552188035315</v>
+        <v>54987.396411335678</v>
       </c>
       <c r="V11" s="10">
-        <v>76134.69804177199</v>
+        <v>131279.63657799427</v>
       </c>
       <c r="W11" s="8">
-        <v>5003208.7323053833</v>
+        <v>8627070.7180125453</v>
       </c>
       <c r="X11" s="5">
-        <v>2881408.8550554547</v>
+        <v>4968435.1163611794</v>
       </c>
       <c r="Y11" s="5">
-        <v>1591129.8901607401</v>
+        <v>2743597.3229194446</v>
       </c>
       <c r="Z11" s="10">
-        <v>9475747.4775215778</v>
+        <v>16339103.157293167</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2633,10 +2593,9 @@
         <v>101134.70161988561</v>
       </c>
       <c r="N12" s="14">
-        <f t="shared" si="0"/>
         <v>0.30278845159325318</v>
       </c>
-      <c r="O12" s="53">
+      <c r="O12" s="52">
         <v>39.434325736870079</v>
       </c>
       <c r="P12" s="35">
@@ -2649,28 +2608,28 @@
         <v>100</v>
       </c>
       <c r="S12" s="8">
-        <v>101674.65032380255</v>
+        <v>175318.36977116595</v>
       </c>
       <c r="T12" s="5">
-        <v>118967.45466996137</v>
+        <v>205136.48330374382</v>
       </c>
       <c r="U12" s="5">
-        <v>30785.909937829631</v>
+        <v>53084.377718864744</v>
       </c>
       <c r="V12" s="10">
-        <v>76645.222169597473</v>
+        <v>132159.93719898644</v>
       </c>
       <c r="W12" s="8">
-        <v>4991038.9542613728</v>
+        <v>8606086.2775413152</v>
       </c>
       <c r="X12" s="5">
-        <v>3006935.8896949934</v>
+        <v>5184882.3330973713</v>
       </c>
       <c r="Y12" s="5">
-        <v>1542916.2807605581</v>
+        <v>2660462.2309972756</v>
       </c>
       <c r="Z12" s="10">
-        <v>9540891.1247169226</v>
+        <v>16451430.841635959</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2714,10 +2673,9 @@
         <v>99182.231826483971</v>
       </c>
       <c r="N13" s="14">
-        <f t="shared" si="0"/>
         <v>0.2855599172204048</v>
       </c>
-      <c r="O13" s="53">
+      <c r="O13" s="52">
         <v>39.811949981958264</v>
       </c>
       <c r="P13" s="35">
@@ -2730,28 +2688,28 @@
         <v>100</v>
       </c>
       <c r="S13" s="8">
-        <v>104971.46506403075</v>
+        <v>181003.09240216226</v>
       </c>
       <c r="T13" s="5">
-        <v>115258.01001378625</v>
+        <v>198740.25978287729</v>
       </c>
       <c r="U13" s="5">
-        <v>29975.642874189238</v>
+        <v>51687.228082998743</v>
       </c>
       <c r="V13" s="10">
-        <v>77925.383385013032</v>
+        <v>134367.32888035616</v>
       </c>
       <c r="W13" s="8">
-        <v>5072016.1959520783</v>
+        <v>8745715.9488169737</v>
       </c>
       <c r="X13" s="5">
-        <v>2967597.2914135605</v>
+        <v>5117050.4900782937</v>
       </c>
       <c r="Y13" s="5">
-        <v>1417854.3043185524</v>
+        <v>2444816.9176340541</v>
       </c>
       <c r="Z13" s="10">
-        <v>9457467.7916841917</v>
+        <v>16307583.356529323</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2795,10 +2753,9 @@
         <v>93969.300857277107</v>
       </c>
       <c r="N14" s="14">
-        <f t="shared" si="0"/>
         <v>0.25940843771879579</v>
       </c>
-      <c r="O14" s="53">
+      <c r="O14" s="52">
         <v>38.731396190513145</v>
       </c>
       <c r="P14" s="35">
@@ -2811,28 +2768,28 @@
         <v>100</v>
       </c>
       <c r="S14" s="8">
-        <v>87349.987609167321</v>
+        <v>150618.24533844166</v>
       </c>
       <c r="T14" s="5">
-        <v>90922.076635553894</v>
+        <v>156777.62550635121</v>
       </c>
       <c r="U14" s="5">
-        <v>22659.323820450263</v>
+        <v>39071.643715191451</v>
       </c>
       <c r="V14" s="10">
-        <v>63227.730763272972</v>
+        <v>109024.05512529374</v>
       </c>
       <c r="W14" s="8">
-        <v>3809150.9114347165</v>
+        <v>6568147.7721172618</v>
       </c>
       <c r="X14" s="5">
-        <v>2326366.7951939004</v>
+        <v>4011371.8879216607</v>
       </c>
       <c r="Y14" s="5">
-        <v>983331.17399552523</v>
+        <v>1695565.3923670631</v>
       </c>
       <c r="Z14" s="10">
-        <v>7118848.8806241425</v>
+        <v>12275085.052405987</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2876,10 +2833,9 @@
         <v>109057.09471155376</v>
       </c>
       <c r="N15" s="14">
-        <f t="shared" si="0"/>
         <v>0.26161004927870529</v>
       </c>
-      <c r="O15" s="53">
+      <c r="O15" s="52">
         <v>39.091718097180689</v>
       </c>
       <c r="P15" s="35">
@@ -2892,28 +2848,28 @@
         <v>100</v>
       </c>
       <c r="S15" s="8">
-        <v>85798.631960852275</v>
+        <v>147943.23104203929</v>
       </c>
       <c r="T15" s="5">
-        <v>87366.653183693619</v>
+        <v>150646.98191484439</v>
       </c>
       <c r="U15" s="5">
-        <v>22445.784335324064</v>
+        <v>38703.435963358781</v>
       </c>
       <c r="V15" s="10">
-        <v>61406.422856544988</v>
+        <v>105883.56010473568</v>
       </c>
       <c r="W15" s="8">
-        <v>3977871.7098147417</v>
+        <v>6859074.3228776818</v>
       </c>
       <c r="X15" s="5">
-        <v>2265583.3009510492</v>
+        <v>3906562.4483443992</v>
       </c>
       <c r="Y15" s="5">
-        <v>1039362.8740551681</v>
+        <v>1792181.2772378649</v>
       </c>
       <c r="Z15" s="10">
-        <v>7282817.8848209586</v>
+        <v>12557818.048459943</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2957,10 +2913,9 @@
         <v>134209.00000036112</v>
       </c>
       <c r="N16" s="14">
-        <f t="shared" si="0"/>
         <v>0.24949092443044743</v>
       </c>
-      <c r="O16" s="53">
+      <c r="O16" s="52">
         <v>40.170053472156809</v>
       </c>
       <c r="P16" s="35">
@@ -2973,28 +2928,28 @@
         <v>100</v>
       </c>
       <c r="S16" s="8">
-        <v>94731.671999224942</v>
+        <v>163346.53965082642</v>
       </c>
       <c r="T16" s="5">
-        <v>93168.985218961214</v>
+        <v>160651.98699776802</v>
       </c>
       <c r="U16" s="5">
-        <v>23634.692419928564</v>
+        <v>40753.47917999942</v>
       </c>
       <c r="V16" s="10">
-        <v>66510.998523708549</v>
+        <v>114685.41859641095</v>
       </c>
       <c r="W16" s="8">
-        <v>4910936.4844224527</v>
+        <v>8467964.981996363</v>
       </c>
       <c r="X16" s="5">
-        <v>2475593.1062530153</v>
+        <v>4268683.9465176882</v>
       </c>
       <c r="Y16" s="5">
-        <v>1196886.6332293039</v>
+        <v>2063800.6884744333</v>
       </c>
       <c r="Z16" s="10">
-        <v>8583416.2239047717</v>
+        <v>14800449.616988484</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3014,34 +2969,33 @@
         <v>11439500.479604164</v>
       </c>
       <c r="F17" s="8">
-        <v>1724.8141699031382</v>
+        <v>1722.0480395467555</v>
       </c>
       <c r="G17" s="5">
         <v>1795.4334846334889</v>
       </c>
       <c r="H17" s="5">
-        <v>417.96069390354489</v>
+        <v>422.78280250113016</v>
       </c>
       <c r="I17" s="10">
-        <v>1247.368887713043</v>
+        <v>1248.013007930871</v>
       </c>
       <c r="J17" s="8">
-        <v>100142.02072676041</v>
+        <v>99981.420304804575</v>
       </c>
       <c r="K17" s="5">
         <v>49505.145812664508</v>
       </c>
       <c r="L17" s="5">
-        <v>21584.157331415114</v>
+        <v>21833.178715860107</v>
       </c>
       <c r="M17" s="10">
-        <v>171231.32387084002</v>
+        <v>171319.74483332917</v>
       </c>
       <c r="N17" s="14">
-        <f t="shared" si="0"/>
-        <v>0.24232215921963154</v>
-      </c>
-      <c r="O17" s="53">
+        <v>0.24551161918363609</v>
+      </c>
+      <c r="O17" s="52">
         <v>42.294678916329104</v>
       </c>
       <c r="P17" s="35">
@@ -3054,28 +3008,28 @@
         <v>100</v>
       </c>
       <c r="S17" s="8">
-        <v>100610.27067442033</v>
+        <v>173204.83249457393</v>
       </c>
       <c r="T17" s="5">
-        <v>104729.5714627839</v>
+        <v>180585.99343311132</v>
       </c>
       <c r="U17" s="5">
-        <v>24380.098029497112</v>
+        <v>42523.798876173314</v>
       </c>
       <c r="V17" s="10">
-        <v>72760.372458389291</v>
+        <v>125526.04748855314</v>
       </c>
       <c r="W17" s="8">
-        <v>5841392.0682067359</v>
+        <v>10056203.287465308</v>
       </c>
       <c r="X17" s="5">
-        <v>2887688.5445975489</v>
+        <v>4979263.232609259</v>
       </c>
       <c r="Y17" s="5">
-        <v>1259027.1748027792</v>
+        <v>2195996.8453028579</v>
       </c>
       <c r="Z17" s="10">
-        <v>9988107.7876070626</v>
+        <v>17231463.365377422</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3095,34 +3049,33 @@
         <v>12276595.60443002</v>
       </c>
       <c r="F18" s="8">
-        <v>2075.9762176995596</v>
+        <v>2069.3229604402895</v>
       </c>
       <c r="G18" s="5">
         <v>2282.8779447554366</v>
       </c>
       <c r="H18" s="5">
-        <v>505.44825503299109</v>
+        <v>517.17847947422399</v>
       </c>
       <c r="I18" s="10">
-        <v>1544.2757747915368</v>
+        <v>1545.6182094828673</v>
       </c>
       <c r="J18" s="8">
-        <v>134709.3768542984</v>
+        <v>134277.64929797756</v>
       </c>
       <c r="K18" s="5">
         <v>65667.503561498554</v>
       </c>
       <c r="L18" s="5">
-        <v>27124.509850205624</v>
+        <v>27754.003740496286</v>
       </c>
       <c r="M18" s="10">
-        <v>227501.39026600256</v>
+        <v>227699.1565999724</v>
       </c>
       <c r="N18" s="14">
-        <f t="shared" si="0"/>
-        <v>0.24347497371289289</v>
-      </c>
-      <c r="O18" s="53">
+        <v>0.24992642007131841</v>
+      </c>
+      <c r="O18" s="52">
         <v>44.04699214419761</v>
       </c>
       <c r="P18" s="35">
@@ -3135,28 +3088,28 @@
         <v>100</v>
       </c>
       <c r="S18" s="8">
-        <v>109195.50826316222</v>
+        <v>187683.20575970269</v>
       </c>
       <c r="T18" s="5">
-        <v>120078.45530936109</v>
+        <v>207052.19012244415</v>
       </c>
       <c r="U18" s="5">
-        <v>26586.373503939398</v>
+        <v>46906.99172303114</v>
       </c>
       <c r="V18" s="10">
-        <v>81228.280309353111</v>
+        <v>140184.29504817098</v>
       </c>
       <c r="W18" s="8">
-        <v>7085658.6641050773</v>
+        <v>12178698.136495508</v>
       </c>
       <c r="X18" s="5">
-        <v>3454084.0914433808</v>
+        <v>5955903.3646620438</v>
       </c>
       <c r="Y18" s="5">
-        <v>1426738.2324661114</v>
+        <v>2517229.3036244148</v>
       </c>
       <c r="Z18" s="10">
-        <v>11966480.98801457</v>
+        <v>20651830.804781966</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3176,34 +3129,33 @@
         <v>12935218.495215662</v>
       </c>
       <c r="F19" s="8">
-        <v>2456.0462441607956</v>
+        <v>2444.2487043898632</v>
       </c>
       <c r="G19" s="5">
         <v>2906.7094129722632</v>
       </c>
       <c r="H19" s="5">
-        <v>562.42083301887999</v>
+        <v>582.11261959381875</v>
       </c>
       <c r="I19" s="10">
-        <v>1882.0903990641104</v>
+        <v>1883.5373408692981</v>
       </c>
       <c r="J19" s="8">
-        <v>175160.74650204662</v>
+        <v>174319.36744492297</v>
       </c>
       <c r="K19" s="5">
         <v>86536.68517236771</v>
       </c>
       <c r="L19" s="5">
-        <v>30445.574801288531</v>
+        <v>31511.551959211807</v>
       </c>
       <c r="M19" s="10">
-        <v>292143.00647570286</v>
+        <v>292367.60457650252</v>
       </c>
       <c r="N19" s="14">
-        <f t="shared" si="0"/>
-        <v>0.22899439876428429</v>
-      </c>
-      <c r="O19" s="53">
+        <v>0.23815605120229635</v>
+      </c>
+      <c r="O19" s="52">
         <v>45.945738092089691</v>
       </c>
       <c r="P19" s="35">
@@ -3216,28 +3168,28 @@
         <v>100</v>
       </c>
       <c r="S19" s="8">
-        <v>109625.04853538808</v>
+        <v>188119.31502192636</v>
       </c>
       <c r="T19" s="5">
-        <v>129740.29346268775</v>
+        <v>223712.17084172412</v>
       </c>
       <c r="U19" s="5">
-        <v>25103.522078866677</v>
+        <v>44801.753220502811</v>
       </c>
       <c r="V19" s="10">
-        <v>84006.663895650621</v>
+        <v>144964.68945495517</v>
       </c>
       <c r="W19" s="8">
-        <v>7818258.8713197391</v>
+        <v>13416327.045565601</v>
       </c>
       <c r="X19" s="5">
-        <v>3862544.6628566524</v>
+        <v>6660215.0221687658</v>
       </c>
       <c r="Y19" s="5">
-        <v>1358931.096356235</v>
+        <v>2425257.1185568068</v>
       </c>
       <c r="Z19" s="10">
-        <v>13039734.630532626</v>
+        <v>22501799.186291177</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3257,34 +3209,33 @@
         <v>13223776.97207886</v>
       </c>
       <c r="F20" s="8">
-        <v>3190.3740676518119</v>
+        <v>3169.9572967543645</v>
       </c>
       <c r="G20" s="5">
         <v>3841.2375695725682</v>
       </c>
       <c r="H20" s="5">
-        <v>715.30352888466189</v>
+        <v>748.88969476225918</v>
       </c>
       <c r="I20" s="10">
-        <v>2512.6259131094553</v>
+        <v>2513.7579498838495</v>
       </c>
       <c r="J20" s="8">
-        <v>242754.47704941247</v>
+        <v>241200.97190012585</v>
       </c>
       <c r="K20" s="5">
         <v>119050.65953166608</v>
       </c>
       <c r="L20" s="5">
-        <v>36911.719689626654</v>
+        <v>38644.862460858632</v>
       </c>
       <c r="M20" s="10">
-        <v>398716.85627070518</v>
+        <v>398896.49389265059</v>
       </c>
       <c r="N20" s="14">
-        <f t="shared" si="0"/>
-        <v>0.22420679008688835</v>
-      </c>
-      <c r="O20" s="53">
+        <v>0.23624598840149283</v>
+      </c>
+      <c r="O20" s="52">
         <v>47.950029605440427</v>
       </c>
       <c r="P20" s="35">
@@ -3297,28 +3248,28 @@
         <v>100</v>
       </c>
       <c r="S20" s="8">
-        <v>112074.15584814186</v>
+        <v>192013.61222249951</v>
       </c>
       <c r="T20" s="5">
-        <v>134938.23886892176</v>
+        <v>232675.02748178403</v>
       </c>
       <c r="U20" s="5">
-        <v>25127.786734409558</v>
+        <v>45362.445606045359</v>
       </c>
       <c r="V20" s="10">
-        <v>88265.646034784018</v>
+        <v>152265.6928862801</v>
       </c>
       <c r="W20" s="8">
-        <v>8527684.3770532031</v>
+        <v>14610250.407328928</v>
       </c>
       <c r="X20" s="5">
-        <v>4182112.155894123</v>
+        <v>7211247.6712387344</v>
       </c>
       <c r="Y20" s="5">
-        <v>1296666.0765779607</v>
+        <v>2340832.6801590123</v>
       </c>
       <c r="Z20" s="10">
-        <v>14006462.609525288</v>
+        <v>24162330.758726675</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3338,34 +3289,33 @@
         <v>13255646.636669137</v>
       </c>
       <c r="F21" s="8">
-        <v>3866.570433946204</v>
+        <v>3835.6651112334121</v>
       </c>
       <c r="G21" s="5">
         <v>4649.7798889639116</v>
       </c>
       <c r="H21" s="5">
-        <v>855.23938847892248</v>
+        <v>905.72645457005092</v>
       </c>
       <c r="I21" s="10">
-        <v>3049.5169302196359</v>
+        <v>3051.2778039745117</v>
       </c>
       <c r="J21" s="8">
-        <v>290674.36448500195</v>
+        <v>288351.01742791076</v>
       </c>
       <c r="K21" s="5">
         <v>150303.6917907928</v>
       </c>
       <c r="L21" s="5">
-        <v>44101.769798583286</v>
+        <v>46705.215098871493</v>
       </c>
       <c r="M21" s="10">
-        <v>485079.82607437804</v>
+        <v>485359.92431757506</v>
       </c>
       <c r="N21" s="14">
-        <f t="shared" si="0"/>
-        <v>0.22118810534793984</v>
-      </c>
-      <c r="O21" s="53">
+        <v>0.23613282919759432</v>
+      </c>
+      <c r="O21" s="52">
         <v>47.260535854883848</v>
       </c>
       <c r="P21" s="35">
@@ -3378,28 +3328,28 @@
         <v>100</v>
       </c>
       <c r="S21" s="8">
-        <v>118538.1313332243</v>
+        <v>202762.46825129297</v>
       </c>
       <c r="T21" s="5">
-        <v>142549.121647853</v>
+        <v>245798.5303123543</v>
       </c>
       <c r="U21" s="5">
-        <v>26219.224681081148</v>
+        <v>47878.875283265203</v>
       </c>
       <c r="V21" s="10">
-        <v>93489.5780518182</v>
+        <v>161297.87166307386</v>
       </c>
       <c r="W21" s="8">
-        <v>8911255.2276356798</v>
+        <v>15242927.19018266</v>
       </c>
       <c r="X21" s="5">
-        <v>4607886.7724599559</v>
+        <v>7945414.0679614181</v>
       </c>
       <c r="Y21" s="5">
-        <v>1352035.7302987706</v>
+        <v>2468949.8220060999</v>
       </c>
       <c r="Z21" s="10">
-        <v>14871177.730394408</v>
+        <v>25657291.08015018</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3419,34 +3369,33 @@
         <v>13599570.859767633</v>
       </c>
       <c r="F22" s="8">
-        <v>4911.7660655919526</v>
+        <v>4864.6923731106572</v>
       </c>
       <c r="G22" s="5">
         <v>5648.1954462033973</v>
       </c>
       <c r="H22" s="5">
-        <v>1067.527521652444</v>
+        <v>1143.5898985335098</v>
       </c>
       <c r="I22" s="10">
-        <v>3828.4089657140348</v>
+        <v>3830.5027845544178</v>
       </c>
       <c r="J22" s="8">
-        <v>380144.71368801623</v>
+        <v>376501.45887669752</v>
       </c>
       <c r="K22" s="5">
         <v>188703.4831707268</v>
       </c>
       <c r="L22" s="5">
-        <v>55928.431254029732</v>
+        <v>59913.386517596031</v>
       </c>
       <c r="M22" s="10">
-        <v>624776.62811277271</v>
+        <v>625118.32856502046</v>
       </c>
       <c r="N22" s="14">
-        <f t="shared" si="0"/>
-        <v>0.21734087238615027</v>
-      </c>
-      <c r="O22" s="53">
+        <v>0.23507959205285939</v>
+      </c>
+      <c r="O22" s="52">
         <v>47.424726057659754</v>
       </c>
       <c r="P22" s="35">
@@ -3459,28 +3408,28 @@
         <v>100</v>
       </c>
       <c r="S22" s="8">
-        <v>122334.37762313076</v>
+        <v>208920.45395190979</v>
       </c>
       <c r="T22" s="5">
-        <v>140676.17744368702</v>
+        <v>242568.99843296246</v>
       </c>
       <c r="U22" s="5">
-        <v>26588.260355427981</v>
+        <v>49112.935086513156</v>
       </c>
       <c r="V22" s="10">
-        <v>95351.859566014668</v>
+        <v>164505.85550622232</v>
       </c>
       <c r="W22" s="8">
-        <v>9468033.7651915587</v>
+        <v>16169338.093577884</v>
       </c>
       <c r="X22" s="5">
-        <v>4699923.1764564225</v>
+        <v>8104113.1365775755</v>
       </c>
       <c r="Y22" s="5">
-        <v>1392975.5076955617</v>
+        <v>2573057.2354873274</v>
       </c>
       <c r="Z22" s="10">
-        <v>15560932.449343542</v>
+        <v>26846508.465642791</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3500,34 +3449,33 @@
         <v>14071114.391476821</v>
       </c>
       <c r="F23" s="8">
-        <v>6541.7303057377603</v>
+        <v>6468.6446583181742</v>
       </c>
       <c r="G23" s="5">
         <v>7446.0561785141399</v>
       </c>
       <c r="H23" s="5">
-        <v>1403.0779409250665</v>
+        <v>1520.3896297101935</v>
       </c>
       <c r="I23" s="10">
-        <v>5117.0956709809407</v>
+        <v>5118.6234939894803</v>
       </c>
       <c r="J23" s="8">
-        <v>532352.58173102199</v>
+        <v>526405.02179306885</v>
       </c>
       <c r="K23" s="5">
         <v>257466.45167800892</v>
       </c>
       <c r="L23" s="5">
-        <v>74219.82905301312</v>
+        <v>80425.367058843258</v>
       </c>
       <c r="M23" s="10">
-        <v>864038.862462044</v>
+        <v>864296.840529921</v>
       </c>
       <c r="N23" s="14">
-        <f t="shared" si="0"/>
-        <v>0.21448116558617908</v>
-      </c>
-      <c r="O23" s="53">
+        <v>0.23503990557822504</v>
+      </c>
+      <c r="O23" s="52">
         <v>48.194445655497596</v>
       </c>
       <c r="P23" s="35">
@@ -3540,28 +3488,28 @@
         <v>100</v>
       </c>
       <c r="S23" s="8">
-        <v>131998.13198443264</v>
+        <v>225062.52163748423</v>
       </c>
       <c r="T23" s="5">
-        <v>150245.49473599315</v>
+        <v>259069.44473070986</v>
       </c>
       <c r="U23" s="5">
-        <v>28311.113203219422</v>
+        <v>52898.673834871523</v>
       </c>
       <c r="V23" s="10">
-        <v>103252.05078581054</v>
+        <v>178091.45063931542</v>
       </c>
       <c r="W23" s="8">
-        <v>10741736.981109019</v>
+        <v>18315125.944510572</v>
       </c>
       <c r="X23" s="5">
-        <v>5195122.5565427244</v>
+        <v>8957989.1789532825</v>
       </c>
       <c r="Y23" s="5">
-        <v>1497597.475488832</v>
+        <v>2798226.9656144092</v>
       </c>
       <c r="Z23" s="10">
-        <v>17434457.013140574</v>
+        <v>30071342.089078262</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3581,34 +3529,33 @@
         <v>14312648.407329584</v>
       </c>
       <c r="F24" s="8">
-        <v>8499.5628120107631</v>
+        <v>8391.1251432412282</v>
       </c>
       <c r="G24" s="5">
         <v>9402.7660851142846</v>
       </c>
       <c r="H24" s="5">
-        <v>1761.0914598792679</v>
+        <v>1930.353665976982</v>
       </c>
       <c r="I24" s="10">
-        <v>6585.973764476259</v>
+        <v>6586.5202213254452</v>
       </c>
       <c r="J24" s="8">
-        <v>702896.5478183222</v>
+        <v>693928.97328332777</v>
       </c>
       <c r="K24" s="5">
         <v>333976.38031663472</v>
       </c>
       <c r="L24" s="5">
-        <v>94279.794795189751</v>
+        <v>103341.22426721027</v>
       </c>
       <c r="M24" s="10">
-        <v>1131152.7229301466</v>
+        <v>1131246.5778671729</v>
       </c>
       <c r="N24" s="14">
-        <f t="shared" si="0"/>
-        <v>0.20719788756554197</v>
-      </c>
-      <c r="O24" s="53">
+        <v>0.23004705960461305</v>
+      </c>
+      <c r="O24" s="52">
         <v>48.149698685968438</v>
       </c>
       <c r="P24" s="35">
@@ -3621,28 +3568,28 @@
         <v>100</v>
       </c>
       <c r="S24" s="8">
-        <v>138695.91340395185</v>
+        <v>236103.27519900296</v>
       </c>
       <c r="T24" s="5">
-        <v>153434.38945539197</v>
+        <v>264568.08005226153</v>
       </c>
       <c r="U24" s="5">
-        <v>28737.500271272158</v>
+        <v>54314.864222549397</v>
       </c>
       <c r="V24" s="10">
-        <v>107469.95664620558</v>
+        <v>185326.63616296797</v>
       </c>
       <c r="W24" s="8">
-        <v>11469869.790289074</v>
+        <v>19525260.385330077</v>
       </c>
       <c r="X24" s="5">
-        <v>5449828.4379879693</v>
+        <v>9397180.4598074295</v>
       </c>
       <c r="Y24" s="5">
-        <v>1538458.2176600811</v>
+        <v>2907738.9618263263</v>
       </c>
       <c r="Z24" s="10">
-        <v>18458156.445937123</v>
+        <v>31830179.806963839</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3663,34 +3610,33 @@
         <v>14496679.838635165</v>
       </c>
       <c r="F25" s="8">
-        <v>10832.531918138813</v>
+        <v>10677.17938017684</v>
       </c>
       <c r="G25" s="5">
         <v>11650.230310033941</v>
       </c>
       <c r="H25" s="5">
-        <v>2343.4713765356805</v>
+        <v>2598.343108977565</v>
       </c>
       <c r="I25" s="10">
-        <v>8401.8125924984961</v>
+        <v>8405.2275645851369</v>
       </c>
       <c r="J25" s="8">
-        <v>906933.90494595829</v>
+        <v>893927.29809154489</v>
       </c>
       <c r="K25" s="5">
         <v>429592.48610858654</v>
       </c>
       <c r="L25" s="5">
-        <v>125054.25555742309</v>
+        <v>138654.93149581141</v>
       </c>
       <c r="M25" s="10">
-        <v>1461580.6466119678</v>
+        <v>1462174.7156959428</v>
       </c>
       <c r="N25" s="14">
-        <f t="shared" si="0"/>
-        <v>0.21633643863182109</v>
-      </c>
-      <c r="O25" s="53">
+        <v>0.24335482400919728</v>
+      </c>
+      <c r="O25" s="52">
         <v>48.127784168620792</v>
       </c>
       <c r="P25" s="35">
@@ -3703,28 +3649,28 @@
         <v>100</v>
       </c>
       <c r="S25" s="8">
-        <v>140839.17647823531</v>
+        <v>239367.27451982332</v>
       </c>
       <c r="T25" s="5">
-        <v>151470.48308248798</v>
+        <v>261181.70141624741</v>
       </c>
       <c r="U25" s="5">
-        <v>30468.645859139968</v>
+        <v>58251.180964332823</v>
       </c>
       <c r="V25" s="10">
-        <v>109236.17630616354</v>
+        <v>188433.32515223831</v>
       </c>
       <c r="W25" s="8">
-        <v>11791502.232169289</v>
+        <v>20040586.876372103</v>
       </c>
       <c r="X25" s="5">
-        <v>5585347.2135595093</v>
+        <v>9630856.5111232884</v>
       </c>
       <c r="Y25" s="5">
-        <v>1625893.0507570882</v>
+        <v>3108447.640441861</v>
       </c>
       <c r="Z25" s="10">
-        <v>19002742.496485885</v>
+        <v>32779891.027937248</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3745,34 +3691,33 @@
         <v>14684268.165303729</v>
       </c>
       <c r="F26" s="8">
-        <v>14428.195823975868</v>
+        <v>14198.469768675157</v>
       </c>
       <c r="G26" s="5">
         <v>15518.571630065722</v>
       </c>
       <c r="H26" s="5">
-        <v>2969.6420420324644</v>
+        <v>3330.6026257016592</v>
       </c>
       <c r="I26" s="10">
-        <v>11150.249218379227</v>
+        <v>11151.191441953157</v>
       </c>
       <c r="J26" s="8">
-        <v>1214379.3491261797</v>
+        <v>1195043.9740788143</v>
       </c>
       <c r="K26" s="5">
         <v>589980.54034946312</v>
       </c>
       <c r="L26" s="5">
-        <v>160439.10611614407</v>
+        <v>179940.51152708419</v>
       </c>
       <c r="M26" s="10">
-        <v>1964798.9955917867</v>
+        <v>1964965.0259553618</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" si="0"/>
-        <v>0.20582213315248329</v>
-      </c>
-      <c r="O26" s="53">
+        <v>0.23457475910887782</v>
+      </c>
+      <c r="O26" s="52">
         <v>47.764891126732721</v>
       </c>
       <c r="P26" s="35">
@@ -3785,28 +3730,28 @@
         <v>100</v>
       </c>
       <c r="S26" s="8">
-        <v>136626.72450612823</v>
+        <v>231835.48261887513</v>
       </c>
       <c r="T26" s="5">
-        <v>146951.95689722383</v>
+        <v>253390.37248572268</v>
       </c>
       <c r="U26" s="5">
-        <v>28120.803883487974</v>
+        <v>54382.752488213067</v>
       </c>
       <c r="V26" s="10">
-        <v>105586.45354692535</v>
+        <v>182078.90651880481</v>
       </c>
       <c r="W26" s="8">
-        <v>11499474.695462892</v>
+        <v>19512919.419850409</v>
       </c>
       <c r="X26" s="5">
-        <v>5586776.734507231</v>
+        <v>9633321.4449225217</v>
       </c>
       <c r="Y26" s="5">
-        <v>1519266.152107124</v>
+        <v>2938105.0220358609</v>
       </c>
       <c r="Z26" s="10">
-        <v>18605517.582077246</v>
+        <v>32084345.886808798</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3827,34 +3772,33 @@
         <v>15044624.933709335</v>
       </c>
       <c r="F27" s="8">
-        <v>18936.24565795494</v>
+        <v>18604.857300902415</v>
       </c>
       <c r="G27" s="5">
         <v>20647.55487270188</v>
       </c>
       <c r="H27" s="5">
-        <v>3835.089660152034</v>
+        <v>4350.8700336326228</v>
       </c>
       <c r="I27" s="10">
-        <v>14774.951174345577</v>
+        <v>14771.416354521374</v>
       </c>
       <c r="J27" s="8">
-        <v>1635888.6073812919</v>
+        <v>1607260.2061811157</v>
       </c>
       <c r="K27" s="5">
         <v>823392.8889035047</v>
       </c>
       <c r="L27" s="5">
-        <v>208121.68969797279</v>
+        <v>236111.93043658856</v>
       </c>
       <c r="M27" s="10">
-        <v>2667403.1859827698</v>
+        <v>2666765.025521209</v>
       </c>
       <c r="N27" s="14">
-        <f t="shared" si="0"/>
-        <v>0.20252639986960397</v>
-      </c>
-      <c r="O27" s="53">
+        <v>0.2338566731937034</v>
+      </c>
+      <c r="O27" s="52">
         <v>47.851685278677927</v>
       </c>
       <c r="P27" s="35">
@@ -3867,28 +3811,28 @@
         <v>100</v>
       </c>
       <c r="S27" s="8">
-        <v>144910.11177130722</v>
+        <v>245496.83185972963</v>
       </c>
       <c r="T27" s="5">
-        <v>158005.94998885118</v>
+        <v>272450.85651113116</v>
       </c>
       <c r="U27" s="5">
-        <v>29348.123241744768</v>
+        <v>57411.072378310346</v>
       </c>
       <c r="V27" s="10">
-        <v>113065.6976448018</v>
+        <v>194913.39591946785</v>
       </c>
       <c r="W27" s="8">
-        <v>12518680.060608834</v>
+        <v>21208294.275524545</v>
       </c>
       <c r="X27" s="5">
-        <v>6301035.4701742083</v>
+        <v>10864923.19357032</v>
       </c>
       <c r="Y27" s="5">
-        <v>1592656.6364276684</v>
+        <v>3115569.7648729524</v>
       </c>
       <c r="Z27" s="10">
-        <v>20412372.167210713</v>
+        <v>35188787.233967818</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3909,34 +3853,33 @@
         <v>15229933.590194508</v>
       </c>
       <c r="F28" s="8">
-        <v>25432.01471474965</v>
+        <v>24946.876772499127</v>
       </c>
       <c r="G28" s="5">
         <v>27511.51644202428</v>
       </c>
       <c r="H28" s="5">
-        <v>5087.7029012492594</v>
+        <v>5838.5392356012253</v>
       </c>
       <c r="I28" s="10">
         <v>19706.846478130559</v>
       </c>
       <c r="J28" s="8">
-        <v>2189470.9046014361</v>
+        <v>2147704.830572716</v>
       </c>
       <c r="K28" s="5">
         <v>1129127.738440502</v>
       </c>
       <c r="L28" s="5">
-        <v>283008.91456835397</v>
+        <v>324774.98859583982</v>
       </c>
       <c r="M28" s="10">
-        <v>3601607.557610292</v>
+        <v>3601607.557609058</v>
       </c>
       <c r="N28" s="14">
-        <f t="shared" si="0"/>
-        <v>0.20005111503409817</v>
-      </c>
-      <c r="O28" s="53">
+        <v>0.23403888546230761</v>
+      </c>
+      <c r="O28" s="52">
         <v>47.10631766825788</v>
       </c>
       <c r="P28" s="35">
@@ -3949,28 +3892,28 @@
         <v>100</v>
       </c>
       <c r="S28" s="8">
-        <v>138782.99828827009</v>
+        <v>234739.63102850295</v>
       </c>
       <c r="T28" s="5">
-        <v>150130.87960612067</v>
+        <v>258871.81299402469</v>
       </c>
       <c r="U28" s="5">
-        <v>27763.693555343765</v>
+        <v>54938.201619744155</v>
       </c>
       <c r="V28" s="10">
-        <v>107540.64401572586</v>
+        <v>185433.14713091837</v>
       </c>
       <c r="W28" s="8">
-        <v>11947985.254557502</v>
+        <v>20209000.272231992</v>
       </c>
       <c r="X28" s="5">
-        <v>6161672.0007771906</v>
+        <v>10624617.70756641</v>
       </c>
       <c r="Y28" s="5">
-        <v>1544385.1439471643</v>
+        <v>3055996.2148975804</v>
       </c>
       <c r="Z28" s="10">
-        <v>19654042.399281856</v>
+        <v>33889614.194695987</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3991,34 +3934,33 @@
         <v>15386439.825543914</v>
       </c>
       <c r="F29" s="8">
-        <v>32822.288690999325</v>
+        <v>32210.333889769405</v>
       </c>
       <c r="G29" s="5">
         <v>34657.036198173388</v>
       </c>
       <c r="H29" s="5">
-        <v>6506.7009151995553</v>
+        <v>7452.9097797057684</v>
       </c>
       <c r="I29" s="11">
         <v>25219.413420637411</v>
       </c>
       <c r="J29" s="8">
-        <v>2853879.9845837094</v>
+        <v>2800670.850536366</v>
       </c>
       <c r="K29" s="5">
         <v>1436665.8702673384</v>
       </c>
       <c r="L29" s="5">
-        <v>365897.98953477759</v>
+        <v>419107.12358211842</v>
       </c>
       <c r="M29" s="10">
-        <v>4656443.8443858251</v>
-      </c>
-      <c r="N29" s="56">
-        <f t="shared" si="0"/>
-        <v>0.19824031701311104</v>
-      </c>
-      <c r="O29" s="54">
+        <v>4656443.8443858223</v>
+      </c>
+      <c r="N29" s="55">
+        <v>0.23138256825313289</v>
+      </c>
+      <c r="O29" s="53">
         <v>47.09203474893333</v>
       </c>
       <c r="P29" s="37">
@@ -4031,28 +3973,28 @@
         <v>100</v>
       </c>
       <c r="S29" s="8">
-        <v>142630.39789667985</v>
+        <v>241353.27462686144</v>
       </c>
       <c r="T29" s="5">
-        <v>150603.35704806104</v>
+        <v>259686.5094263294</v>
       </c>
       <c r="U29" s="5">
-        <v>28275.095294743976</v>
+        <v>55844.940539466894</v>
       </c>
       <c r="V29" s="10">
-        <v>109591.83878888928</v>
+        <v>188970.0378167372</v>
       </c>
       <c r="W29" s="8">
-        <v>12401634.803186899</v>
+        <v>20985534.743048523</v>
       </c>
       <c r="X29" s="5">
-        <v>6243081.5428481158</v>
+        <v>10764992.797662495</v>
       </c>
       <c r="Y29" s="5">
-        <v>1590022.448716436</v>
+        <v>3140385.8476647767</v>
       </c>
       <c r="Z29" s="10">
-        <v>20234738.79475145</v>
+        <v>34890913.388375789</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4072,34 +4014,33 @@
         <v>15556435.348923387</v>
       </c>
       <c r="F30" s="8">
-        <v>41500.846371541636</v>
+        <v>40703.003220756567</v>
       </c>
       <c r="G30" s="5">
         <v>43509.049613489195</v>
       </c>
       <c r="H30" s="5">
-        <v>8168.9741235753645</v>
+        <v>9381.8900959895436</v>
       </c>
       <c r="I30" s="11">
         <v>31692.942695637601</v>
       </c>
       <c r="J30" s="8">
-        <v>3624795.1193843908</v>
+        <v>3555109.3608553037</v>
       </c>
       <c r="K30" s="5">
         <v>1822222.7246240252</v>
       </c>
       <c r="L30" s="5">
-        <v>469332.72473342373</v>
+        <v>539018.48326251109</v>
       </c>
       <c r="M30" s="10">
         <v>5916350.5687418394</v>
       </c>
-      <c r="N30" s="56">
-        <f t="shared" si="0"/>
-        <v>0.19683873553906778</v>
-      </c>
-      <c r="O30" s="54">
+      <c r="N30" s="55">
+        <v>0.23049626203516188</v>
+      </c>
+      <c r="O30" s="53">
         <v>46.788074859464231</v>
       </c>
       <c r="P30" s="37">
@@ -4112,28 +4053,28 @@
         <v>100</v>
       </c>
       <c r="S30" s="8">
-        <v>134306.74791332812</v>
+        <v>227133.95851361856</v>
       </c>
       <c r="T30" s="5">
-        <v>140805.77793696467</v>
+        <v>242792.46954528627</v>
       </c>
       <c r="U30" s="5">
-        <v>26436.770433623831</v>
+        <v>52353.528418638612</v>
       </c>
       <c r="V30" s="10">
-        <v>102566.00617604301</v>
+        <v>176855.34141948848</v>
       </c>
       <c r="W30" s="8">
-        <v>11730711.224011524</v>
+        <v>19838488.518903852</v>
       </c>
       <c r="X30" s="5">
-        <v>5897152.2153302431</v>
+        <v>10168504.237698684</v>
       </c>
       <c r="Y30" s="5">
-        <v>1518873.8895569132</v>
+        <v>3007871.4622460022</v>
       </c>
       <c r="Z30" s="10">
-        <v>19146737.328898679</v>
+        <v>33014864.21884853</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4141,80 +4082,79 @@
         <v>2019</v>
       </c>
       <c r="B31" s="8">
-        <v>7159219.5630538212</v>
+        <v>7158660.823647324</v>
       </c>
       <c r="C31" s="5">
-        <v>3518004.2883161064</v>
+        <v>3518084.6441474734</v>
       </c>
       <c r="D31" s="5">
-        <v>4902404.0927540921</v>
+        <v>4902308.8712755255</v>
       </c>
       <c r="E31" s="11">
-        <v>15579627.944124021</v>
+        <v>15579054.339070324</v>
       </c>
       <c r="F31" s="8">
-        <v>59594.722604668343</v>
+        <v>58314.542652502743</v>
       </c>
       <c r="G31" s="5">
-        <v>64074.193962547848</v>
+        <v>61605.801220485773</v>
       </c>
       <c r="H31" s="5">
-        <v>10788.643893298913</v>
+        <v>12639.186097024178</v>
       </c>
       <c r="I31" s="11">
-        <v>45248.531451638613</v>
+        <v>44684.974721659608</v>
       </c>
       <c r="J31" s="8">
-        <v>5119820.4471132876</v>
+        <v>5009448.3832245879</v>
       </c>
       <c r="K31" s="5">
-        <v>2704959.4695676952</v>
+        <v>2600813.0791703127</v>
       </c>
       <c r="L31" s="5">
-        <v>634683.50373330037</v>
+        <v>743534.32954972691</v>
       </c>
       <c r="M31" s="10">
-        <v>8459463.420414282</v>
-      </c>
-      <c r="N31" s="56">
-        <f t="shared" si="0"/>
-        <v>0.18103354494771634</v>
-      </c>
-      <c r="O31" s="54">
-        <v>45.952442437843821</v>
+        <v>8353795.7919446277</v>
+      </c>
+      <c r="N31" s="55">
+        <v>0.21674157975209171</v>
+      </c>
+      <c r="O31" s="53">
+        <v>45.950547882064292</v>
       </c>
       <c r="P31" s="37">
-        <v>22.580797827350874</v>
+        <v>22.582145023556123</v>
       </c>
       <c r="Q31" s="37">
-        <v>31.466759734805301</v>
+        <v>31.467307094379578</v>
       </c>
       <c r="R31" s="38">
         <v>100</v>
       </c>
       <c r="S31" s="8">
-        <v>125604.05407943431</v>
+        <v>211927.57303147585</v>
       </c>
       <c r="T31" s="5">
-        <v>135045.15453416316</v>
+        <v>223888.71357729408</v>
       </c>
       <c r="U31" s="5">
-        <v>22738.547169804664</v>
+        <v>45933.516971868878</v>
       </c>
       <c r="V31" s="10">
-        <v>95367.487976550998</v>
+        <v>162394.79575731079</v>
       </c>
       <c r="W31" s="8">
-        <v>10790724.013972273</v>
+        <v>18205411.374133006</v>
       </c>
       <c r="X31" s="5">
-        <v>5701073.1932099657</v>
+        <v>9451913.3428105246</v>
       </c>
       <c r="Y31" s="5">
-        <v>1337682.5605023883</v>
+        <v>2702163.452880932</v>
       </c>
       <c r="Z31" s="10">
-        <v>17829479.767684624</v>
+        <v>30359488.169824459</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4222,80 +4162,79 @@
         <v>2020</v>
       </c>
       <c r="B32" s="8">
-        <v>6875244.6166861588</v>
+        <v>6874400.7719999738</v>
       </c>
       <c r="C32" s="5">
-        <v>3537763.4368516868</v>
+        <v>3533499.3269110871</v>
       </c>
       <c r="D32" s="5">
-        <v>4114414.6323331352</v>
+        <v>4114248.6158089661</v>
       </c>
       <c r="E32" s="11">
-        <v>14527422.685870981</v>
+        <v>14522148.714720028</v>
       </c>
       <c r="F32" s="8">
-        <v>84325.833451123603</v>
+        <v>80399.247889157094</v>
       </c>
       <c r="G32" s="5">
-        <v>79415.553130669316</v>
+        <v>84290.08063362728</v>
       </c>
       <c r="H32" s="5">
-        <v>14613.408484529229</v>
+        <v>17117.486915271638</v>
       </c>
       <c r="I32" s="11">
-        <v>63386.315265545381</v>
+        <v>63417.694576796079</v>
       </c>
       <c r="J32" s="8">
-        <v>6957128.7897889335</v>
+        <v>6632359.8210892659</v>
       </c>
       <c r="K32" s="5">
-        <v>3371441.2821964133</v>
+        <v>3574067.3182104388</v>
       </c>
       <c r="L32" s="5">
-        <v>721507.46036409901</v>
+        <v>845107.16216741304</v>
       </c>
       <c r="M32" s="10">
-        <v>11050077.532349447</v>
-      </c>
-      <c r="N32" s="56">
-        <f t="shared" si="0"/>
-        <v>0.17329693507268279</v>
-      </c>
-      <c r="O32" s="54">
-        <v>47.325976295663615</v>
+        <v>11051534.301467119</v>
+      </c>
+      <c r="N32" s="55">
+        <v>0.21290605776400751</v>
+      </c>
+      <c r="O32" s="53">
+        <v>47.337352805318005</v>
       </c>
       <c r="P32" s="37">
-        <v>24.352312955638233</v>
+        <v>24.331794118933932</v>
       </c>
       <c r="Q32" s="37">
-        <v>28.321710748698152</v>
+        <v>28.33085307574806</v>
       </c>
       <c r="R32" s="38">
         <v>100</v>
       </c>
       <c r="S32" s="8">
-        <v>125147.44544560321</v>
+        <v>205744.42163571672</v>
       </c>
       <c r="T32" s="5">
-        <v>117860.12893324583</v>
+        <v>215701.19553235767</v>
       </c>
       <c r="U32" s="5">
-        <v>21687.668727898814</v>
+        <v>43804.233717396215</v>
       </c>
       <c r="V32" s="10">
-        <v>94071.236619208867</v>
+        <v>162288.04665140546</v>
       </c>
       <c r="W32" s="8">
-        <v>10325031.607102899</v>
+        <v>16972435.331127107</v>
       </c>
       <c r="X32" s="5">
-        <v>5003535.0576319527</v>
+        <v>9146160.3507300317</v>
       </c>
       <c r="Y32" s="5">
-        <v>1070784.7386631276</v>
+        <v>2162658.0952604376</v>
       </c>
       <c r="Z32" s="10">
-        <v>16399351.403397979</v>
+        <v>28281253.77711758</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4303,85 +4242,160 @@
         <v>2021</v>
       </c>
       <c r="B33" s="8">
-        <v>6956275.0320849316</v>
+        <v>6960707.1662849532</v>
       </c>
       <c r="C33" s="5">
-        <v>3597287.1130002523</v>
+        <v>3588032.8350116545</v>
       </c>
       <c r="D33" s="5">
-        <v>4664285.1256589927</v>
+        <v>4665953.9992452525</v>
       </c>
       <c r="E33" s="10">
-        <v>15217847.270744177</v>
+        <v>15214694.00054186</v>
       </c>
       <c r="F33" s="8">
-        <v>124614.23146841083</v>
+        <v>120496.57018536965</v>
       </c>
       <c r="G33" s="5">
-        <v>121661.49840640063</v>
+        <v>125739.78303528535</v>
       </c>
       <c r="H33" s="5">
-        <v>21290.6473080002</v>
+        <v>25671.375320037143</v>
       </c>
       <c r="I33" s="10">
-        <v>92247.466540483481</v>
+        <v>92652.620295245768</v>
       </c>
       <c r="J33" s="8">
-        <v>10402210.404073901</v>
+        <v>10064896.075224726</v>
       </c>
       <c r="K33" s="5">
-        <v>5251816.0843877485</v>
+        <v>5413901.642374143</v>
       </c>
       <c r="L33" s="5">
-        <v>1191667.7946522841</v>
+        <v>1437377.4760878382</v>
       </c>
       <c r="M33" s="10">
-        <v>16845694.283113934</v>
+        <v>16916175.193686705</v>
       </c>
       <c r="N33" s="14">
-        <f t="shared" si="0"/>
-        <v>0.17085245446782929</v>
-      </c>
-      <c r="O33" s="53">
-        <v>45.711294825899238</v>
+        <v>0.2130465230715263</v>
+      </c>
+      <c r="O33" s="52">
+        <v>45.74989918323071</v>
       </c>
       <c r="P33" s="35">
-        <v>23.638607018457343</v>
+        <v>23.582681550374062</v>
       </c>
       <c r="Q33" s="35">
-        <v>30.650098155643413</v>
+        <v>30.667419266395225</v>
       </c>
       <c r="R33" s="36">
         <v>100</v>
       </c>
       <c r="S33" s="8">
-        <v>124614.23146841083</v>
+        <v>207773.14877049898</v>
       </c>
       <c r="T33" s="5">
-        <v>121661.49840640061</v>
+        <v>216814.06040661453</v>
       </c>
       <c r="U33" s="5">
-        <v>21290.6473080002</v>
+        <v>44265.346933177774</v>
       </c>
       <c r="V33" s="10">
-        <v>92247.466540483481</v>
+        <v>159761.61504817684</v>
       </c>
       <c r="W33" s="8">
-        <v>10402210.404073901</v>
+        <v>17354976.547300823</v>
       </c>
       <c r="X33" s="5">
-        <v>5251816.0843877485</v>
+        <v>9335231.6139735989</v>
       </c>
       <c r="Y33" s="5">
-        <v>1191667.7946522841</v>
+        <v>2478480.8706100727</v>
       </c>
       <c r="Z33" s="10">
-        <v>16845694.283113934</v>
+        <v>29168689.031884491</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="40"/>
-      <c r="O34" s="15"/>
+      <c r="A34" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="8">
+        <v>7239344.3383493349</v>
+      </c>
+      <c r="C34" s="5">
+        <v>3668311.0675423802</v>
+      </c>
+      <c r="D34" s="5">
+        <v>5366719.7325356686</v>
+      </c>
+      <c r="E34" s="10">
+        <v>16274375.138427384</v>
+      </c>
+      <c r="F34" s="8">
+        <v>209802.0606973235</v>
+      </c>
+      <c r="G34" s="5">
+        <v>218974.08357350982</v>
+      </c>
+      <c r="H34" s="5">
+        <v>44625.61987333421</v>
+      </c>
+      <c r="I34" s="10">
+        <v>157400.05914348346</v>
+      </c>
+      <c r="J34" s="8">
+        <v>18225952.323398307</v>
+      </c>
+      <c r="K34" s="5">
+        <v>9639180.6513318755</v>
+      </c>
+      <c r="L34" s="5">
+        <v>2873918.3370103026</v>
+      </c>
+      <c r="M34" s="10">
+        <v>30739051.311740484</v>
+      </c>
+      <c r="N34" s="14">
+        <v>0.21270343925608312</v>
+      </c>
+      <c r="O34" s="52">
+        <v>44.483086304528207</v>
+      </c>
+      <c r="P34" s="35">
+        <v>22.540411145375959</v>
+      </c>
+      <c r="Q34" s="35">
+        <v>32.97650255009583</v>
+      </c>
+      <c r="R34" s="36">
+        <v>100</v>
+      </c>
+      <c r="S34" s="8">
+        <v>209802.0606973235</v>
+      </c>
+      <c r="T34" s="5">
+        <v>218974.08357350982</v>
+      </c>
+      <c r="U34" s="5">
+        <v>44625.61987333421</v>
+      </c>
+      <c r="V34" s="10">
+        <v>157400.05914348346</v>
+      </c>
+      <c r="W34" s="8">
+        <v>18225952.323398307</v>
+      </c>
+      <c r="X34" s="5">
+        <v>9639180.6513318755</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>2873918.3370103026</v>
+      </c>
+      <c r="Z34" s="10">
+        <v>30739051.311740484</v>
+      </c>
     </row>
     <row r="35" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F35" s="15"/>
@@ -4416,13 +4430,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:N34"/>
+  <dimension ref="A3:N35"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4433,11 +4447,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="60" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="72" t="s">
@@ -4445,16 +4459,16 @@
       </c>
       <c r="E3" s="73"/>
       <c r="F3" s="73"/>
-      <c r="G3" s="65"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="72" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="73"/>
       <c r="J3" s="73"/>
-      <c r="K3" s="65"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="70"/>
       <c r="C4" s="71"/>
       <c r="D4" s="74"/>
@@ -4467,7 +4481,7 @@
       <c r="K4" s="76"/>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4942,28 +4956,28 @@
         <v>582538.17293727468</v>
       </c>
       <c r="D18" s="25">
-        <v>20.212100220237939</v>
+        <v>20.179685537566005</v>
       </c>
       <c r="E18" s="26">
         <v>9.9918392031775909</v>
       </c>
       <c r="F18" s="26">
-        <v>4.3564244858039496</v>
+        <v>4.4066855564599727</v>
       </c>
       <c r="G18" s="27">
-        <v>34.560363909219468</v>
+        <v>34.578210297203569</v>
       </c>
       <c r="H18" s="25">
-        <v>17.190636661941689</v>
+        <v>17.163067580735206</v>
       </c>
       <c r="I18" s="26">
         <v>8.4981805678157727</v>
       </c>
       <c r="J18" s="26">
-        <v>3.7051919228886669</v>
+        <v>3.7479395737746812</v>
       </c>
       <c r="K18" s="27">
-        <v>29.394009152646124</v>
+        <v>29.409187722325651</v>
       </c>
       <c r="N18" s="39"/>
     </row>
@@ -4978,28 +4992,28 @@
         <v>715904.27173384849</v>
       </c>
       <c r="D19" s="25">
-        <v>22.166475589451785</v>
+        <v>22.095434667416864</v>
       </c>
       <c r="E19" s="26">
         <v>10.805610928559121</v>
       </c>
       <c r="F19" s="26">
-        <v>4.46334768603929</v>
+        <v>4.5669311282515519</v>
       </c>
       <c r="G19" s="27">
-        <v>37.435434204050196</v>
+        <v>37.467976724227533</v>
       </c>
       <c r="H19" s="25">
-        <v>18.816674543377953</v>
+        <v>18.756369335912822</v>
       </c>
       <c r="I19" s="26">
         <v>9.1726654183049412</v>
       </c>
       <c r="J19" s="26">
-        <v>3.7888459283128424</v>
+        <v>3.876775825527464</v>
       </c>
       <c r="K19" s="27">
-        <v>31.778185889995736</v>
+        <v>31.805810579745224</v>
       </c>
       <c r="N19" s="39"/>
     </row>
@@ -5014,28 +5028,28 @@
         <v>896980.17407190299</v>
       </c>
       <c r="D20" s="25">
-        <v>23.143839977543028</v>
+        <v>23.032669280640921</v>
       </c>
       <c r="E20" s="26">
         <v>11.434018373476718</v>
       </c>
       <c r="F20" s="26">
-        <v>4.0227478204833131</v>
+        <v>4.1635944728033527</v>
       </c>
       <c r="G20" s="27">
-        <v>38.60060617150306</v>
+        <v>38.630282126920996</v>
       </c>
       <c r="H20" s="25">
-        <v>19.527828102029545</v>
+        <v>19.434026802798581</v>
       </c>
       <c r="I20" s="26">
         <v>9.6475582932372408</v>
       </c>
       <c r="J20" s="26">
-        <v>3.3942305171672587</v>
+        <v>3.513071177054333</v>
       </c>
       <c r="K20" s="27">
-        <v>32.569616912434043</v>
+        <v>32.594656273090159</v>
       </c>
       <c r="N20" s="39"/>
     </row>
@@ -5050,28 +5064,28 @@
         <v>1149646.0905836353</v>
       </c>
       <c r="D21" s="25">
-        <v>25.183587081203257</v>
+        <v>25.022424936291738</v>
       </c>
       <c r="E21" s="26">
         <v>12.35043195837796</v>
       </c>
       <c r="F21" s="26">
-        <v>3.8292579334446817</v>
+        <v>4.0090558611038869</v>
       </c>
       <c r="G21" s="27">
-        <v>41.36327697302589</v>
+        <v>41.381912755773584</v>
       </c>
       <c r="H21" s="25">
-        <v>21.115583224936159</v>
+        <v>20.980454235066073</v>
       </c>
       <c r="I21" s="26">
         <v>10.355418115781024</v>
       </c>
       <c r="J21" s="26">
-        <v>3.2107028408097191</v>
+        <v>3.3614573021546121</v>
       </c>
       <c r="K21" s="27">
-        <v>34.681704181526904</v>
+        <v>34.697329653001709</v>
       </c>
       <c r="N21" s="39"/>
     </row>
@@ -5086,28 +5100,28 @@
         <v>1247929.2689250195</v>
       </c>
       <c r="D22" s="25">
-        <v>27.774232853776965</v>
+        <v>27.552234665948749</v>
       </c>
       <c r="E22" s="26">
         <v>14.361671494409341</v>
       </c>
       <c r="F22" s="26">
-        <v>4.2139692154129467</v>
+        <v>4.4627310768876862</v>
       </c>
       <c r="G22" s="27">
-        <v>46.349873563599253</v>
+        <v>46.376637237245774</v>
       </c>
       <c r="H22" s="25">
-        <v>23.292535219996253</v>
+        <v>23.106359038785875</v>
       </c>
       <c r="I22" s="26">
         <v>12.044247661589514</v>
       </c>
       <c r="J22" s="26">
-        <v>3.5339959480694807</v>
+        <v>3.7426171708516698</v>
       </c>
       <c r="K22" s="27">
-        <v>38.870778829655251</v>
+        <v>38.893223871227065</v>
       </c>
       <c r="N22" s="39"/>
     </row>
@@ -5122,28 +5136,28 @@
         <v>1661720.9259445816</v>
       </c>
       <c r="D23" s="25">
-        <v>27.270979633266386</v>
+        <v>27.009618303802224</v>
       </c>
       <c r="E23" s="26">
         <v>13.537288987526816</v>
       </c>
       <c r="F23" s="26">
-        <v>4.0122170708414231</v>
+        <v>4.2980914495165461</v>
       </c>
       <c r="G23" s="27">
-        <v>44.820485691634616</v>
+        <v>44.84499874084559</v>
       </c>
       <c r="H23" s="25">
-        <v>22.876567764946955</v>
+        <v>22.657321876275983</v>
       </c>
       <c r="I23" s="26">
         <v>11.355907013294726</v>
       </c>
       <c r="J23" s="26">
-        <v>3.3656933833361951</v>
+        <v>3.6055023188408799</v>
       </c>
       <c r="K23" s="27">
-        <v>37.598168161577874</v>
+        <v>37.618731208411596</v>
       </c>
       <c r="N23" s="39"/>
     </row>
@@ -5158,28 +5172,28 @@
         <v>2179024.1036307774</v>
       </c>
       <c r="D24" s="25">
-        <v>29.076185431999175</v>
+        <v>28.751339903756335</v>
       </c>
       <c r="E24" s="26">
         <v>14.062376230366649</v>
       </c>
       <c r="F24" s="26">
-        <v>4.0537598319886836</v>
+        <v>4.3926956800616468</v>
       </c>
       <c r="G24" s="27">
-        <v>47.192321494354502</v>
+        <v>47.206411814184627</v>
       </c>
       <c r="H24" s="25">
-        <v>24.430779854339139</v>
+        <v>24.1578338172557</v>
       </c>
       <c r="I24" s="26">
         <v>11.815677084480523</v>
       </c>
       <c r="J24" s="26">
-        <v>3.4061040871161117</v>
+        <v>3.6908892804276596</v>
       </c>
       <c r="K24" s="27">
-        <v>39.652561025935775</v>
+        <v>39.664400182163881</v>
       </c>
       <c r="N24" s="39"/>
     </row>
@@ -5194,28 +5208,28 @@
         <v>2637913.8482155497</v>
       </c>
       <c r="D25" s="25">
-        <v>31.770917454149412</v>
+        <v>31.365583168187207</v>
       </c>
       <c r="E25" s="26">
         <v>15.095729298442892</v>
       </c>
       <c r="F25" s="26">
-        <v>4.2614458519240426</v>
+        <v>4.6710223801709443</v>
       </c>
       <c r="G25" s="27">
-        <v>51.12809260451634</v>
+        <v>51.132334846801044</v>
       </c>
       <c r="H25" s="25">
-        <v>26.64592508560526</v>
+        <v>26.305975600861448</v>
       </c>
       <c r="I25" s="26">
         <v>12.660625006482199</v>
       </c>
       <c r="J25" s="26">
-        <v>3.5740285778842438</v>
+        <v>3.9175359853816585</v>
       </c>
       <c r="K25" s="27">
-        <v>42.880578669971698</v>
+        <v>42.884136592725305</v>
       </c>
       <c r="N25" s="39"/>
     </row>
@@ -5231,28 +5245,28 @@
         <v>3348308.4882272054</v>
       </c>
       <c r="D26" s="25">
-        <v>32.254119991288036</v>
+        <v>31.791554135194307</v>
       </c>
       <c r="E26" s="26">
         <v>15.277990511478054</v>
       </c>
       <c r="F26" s="26">
-        <v>4.447418871621819</v>
+        <v>4.9311121499159407</v>
       </c>
       <c r="G26" s="27">
-        <v>51.979529374387901</v>
+        <v>52.000656796588295</v>
       </c>
       <c r="H26" s="25">
-        <v>27.086330549732089</v>
+        <v>26.697877487532324</v>
       </c>
       <c r="I26" s="26">
         <v>12.830134607341348</v>
       </c>
       <c r="J26" s="26">
-        <v>3.7348486854517486</v>
+        <v>4.1410441117754839</v>
       </c>
       <c r="K26" s="27">
-        <v>43.651313842525184</v>
+        <v>43.669056206649145</v>
       </c>
       <c r="N26" s="39"/>
     </row>
@@ -5268,28 +5282,28 @@
         <v>4579086.4254100993</v>
       </c>
       <c r="D27" s="25">
-        <v>31.597665007537064</v>
+        <v>31.094566281441828</v>
       </c>
       <c r="E27" s="26">
         <v>15.351057713837198</v>
       </c>
       <c r="F27" s="26">
-        <v>4.1745613780524407</v>
+        <v>4.6819801478087362</v>
       </c>
       <c r="G27" s="27">
-        <v>51.123284099426691</v>
+        <v>51.127604143087765</v>
       </c>
       <c r="H27" s="25">
-        <v>26.520122930796635</v>
+        <v>26.097868942750672</v>
       </c>
       <c r="I27" s="26">
         <v>12.884241211861927</v>
       </c>
       <c r="J27" s="26">
-        <v>3.503736143214971</v>
+        <v>3.9296159716175012</v>
       </c>
       <c r="K27" s="27">
-        <v>42.90810028587353</v>
+        <v>42.911726126230107</v>
       </c>
       <c r="N27" s="39"/>
     </row>
@@ -5305,28 +5319,28 @@
         <v>5954510.895692341</v>
       </c>
       <c r="D28" s="25">
-        <v>32.657609955098657</v>
+        <v>32.086094782357115</v>
       </c>
       <c r="E28" s="26">
         <v>16.437576302128388</v>
       </c>
       <c r="F28" s="26">
-        <v>4.1547798148876565</v>
+        <v>4.7135552476809046</v>
       </c>
       <c r="G28" s="27">
-        <v>53.249966072114709</v>
+        <v>53.237226332166408</v>
       </c>
       <c r="H28" s="25">
-        <v>27.473097892301102</v>
+        <v>26.992312791699689</v>
       </c>
       <c r="I28" s="26">
         <v>13.828052434989582</v>
       </c>
       <c r="J28" s="26">
-        <v>3.4951937000994291</v>
+        <v>3.9652615399091555</v>
       </c>
       <c r="K28" s="27">
-        <v>44.79634402739012</v>
+        <v>44.785626766598426</v>
       </c>
       <c r="N28" s="39"/>
     </row>
@@ -5342,28 +5356,28 @@
         <v>8228159.5565364286</v>
       </c>
       <c r="D29" s="25">
-        <v>31.512551930164872</v>
+        <v>30.91142241801511</v>
       </c>
       <c r="E29" s="26">
         <v>16.251276241495937</v>
       </c>
       <c r="F29" s="26">
-        <v>4.07328231596588</v>
+        <v>4.6744118280978748</v>
       </c>
       <c r="G29" s="27">
-        <v>51.837110487626688</v>
+        <v>51.837110487608925</v>
       </c>
       <c r="H29" s="25">
-        <v>26.609485262863263</v>
+        <v>26.101886039224709</v>
       </c>
       <c r="I29" s="26">
         <v>13.722725363821194</v>
       </c>
       <c r="J29" s="26">
-        <v>3.4395166090761138</v>
+        <v>3.9471158326996636</v>
       </c>
       <c r="K29" s="27">
-        <v>43.771727235760572</v>
+        <v>43.771727235745573</v>
       </c>
       <c r="N29" s="39"/>
     </row>
@@ -5379,168 +5393,203 @@
         <v>10660228.494808454</v>
       </c>
       <c r="D30" s="30">
-        <v>31.733184807288378</v>
+        <v>31.141535791463898</v>
       </c>
       <c r="E30" s="31">
         <v>15.974737485033859</v>
       </c>
       <c r="F30" s="31">
-        <v>4.0685342709728767</v>
+        <v>4.6601832867973254</v>
       </c>
       <c r="G30" s="32">
-        <v>51.776456563295113</v>
+        <v>51.776456563295085</v>
       </c>
       <c r="H30" s="30">
-        <v>26.771283429558313</v>
+        <v>26.272146529507285</v>
       </c>
       <c r="I30" s="31">
         <v>13.476876888398747</v>
       </c>
       <c r="J30" s="31">
-        <v>3.4323653542039025</v>
+        <v>3.9315022542549078</v>
       </c>
       <c r="K30" s="32">
-        <v>43.680525672160961</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41">
+        <v>43.680525672160933</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="40">
         <v>2018</v>
       </c>
-      <c r="B31" s="42">
+      <c r="B31" s="41">
         <v>12478123.591775578</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="42">
         <v>14744810.677265817</v>
       </c>
-      <c r="D31" s="44">
-        <v>29.049200328273074</v>
-      </c>
-      <c r="E31" s="45">
+      <c r="D31" s="43">
+        <v>28.490736886101224</v>
+      </c>
+      <c r="E31" s="44">
         <v>14.603339285924893</v>
       </c>
-      <c r="F31" s="45">
-        <v>3.7612443993002636</v>
-      </c>
-      <c r="G31" s="46">
+      <c r="F31" s="44">
+        <v>4.3197078414721108</v>
+      </c>
+      <c r="G31" s="45">
         <v>47.41378401349823</v>
       </c>
-      <c r="H31" s="47">
-        <v>24.583531106121665</v>
-      </c>
-      <c r="I31" s="48">
+      <c r="H31" s="46">
+        <v>24.110919011911928</v>
+      </c>
+      <c r="I31" s="47">
         <v>12.358400284064729</v>
       </c>
-      <c r="J31" s="48">
-        <v>3.1830366289955907</v>
-      </c>
-      <c r="K31" s="49">
+      <c r="J31" s="47">
+        <v>3.6556487232053305</v>
+      </c>
+      <c r="K31" s="48">
         <v>40.124968019181985</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="41">
+    <row r="32" spans="1:14" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="40">
         <v>2019</v>
       </c>
-      <c r="B32" s="42">
-        <v>18340548.037806135</v>
-      </c>
-      <c r="C32" s="43">
-        <v>21802256.301990129</v>
-      </c>
-      <c r="D32" s="44">
-        <v>27.915307855357369</v>
-      </c>
-      <c r="E32" s="45">
-        <v>14.748520404035089</v>
-      </c>
-      <c r="F32" s="45">
-        <v>3.4605481931346915</v>
-      </c>
-      <c r="G32" s="46">
-        <v>46.124376452527144</v>
-      </c>
-      <c r="H32" s="47">
-        <v>23.482984403985498</v>
-      </c>
-      <c r="I32" s="48">
-        <v>12.406786857747306</v>
-      </c>
-      <c r="J32" s="48">
-        <v>2.9110909207840376</v>
-      </c>
-      <c r="K32" s="49">
-        <v>38.800862182516838</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="41">
+      <c r="B32" s="41">
+        <v>18090816.018631365</v>
+      </c>
+      <c r="C32" s="42">
+        <v>21558444.149200603</v>
+      </c>
+      <c r="D32" s="43">
+        <v>27.690560658322205</v>
+      </c>
+      <c r="E32" s="44">
+        <v>14.376427666346217</v>
+      </c>
+      <c r="F32" s="44">
+        <v>4.110009901067901</v>
+      </c>
+      <c r="G32" s="45">
+        <v>46.17699822573632</v>
+      </c>
+      <c r="H32" s="46">
+        <v>23.236595129757269</v>
+      </c>
+      <c r="I32" s="47">
+        <v>12.064011025891922</v>
+      </c>
+      <c r="J32" s="47">
+        <v>3.4489238852484512</v>
+      </c>
+      <c r="K32" s="48">
+        <v>38.749530040897639</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="40">
         <v>2020</v>
       </c>
-      <c r="B33" s="42">
-        <v>23044918.021978933</v>
-      </c>
-      <c r="C33" s="43">
-        <v>27481439.972801309</v>
-      </c>
-      <c r="D33" s="44">
-        <v>30.189427374632533</v>
-      </c>
-      <c r="E33" s="45">
-        <v>14.629868845621077</v>
-      </c>
-      <c r="F33" s="45">
-        <v>3.1308744933523571</v>
-      </c>
-      <c r="G33" s="46">
-        <v>47.950170713605971</v>
-      </c>
-      <c r="H33" s="47">
-        <v>25.315735990088157</v>
-      </c>
-      <c r="I33" s="48">
-        <v>12.268066322336701</v>
-      </c>
-      <c r="J33" s="48">
-        <v>2.6254354250657284</v>
-      </c>
-      <c r="K33" s="49">
-        <v>40.209237737490589</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41">
+      <c r="B33" s="41">
+        <v>22735942.587414417</v>
+      </c>
+      <c r="C33" s="42">
+        <v>27195699.0131163</v>
+      </c>
+      <c r="D33" s="43">
+        <v>29.17125514189431</v>
+      </c>
+      <c r="E33" s="44">
+        <v>15.719899469612841</v>
+      </c>
+      <c r="F33" s="44">
+        <v>3.7170535548204007</v>
+      </c>
+      <c r="G33" s="45">
+        <v>48.608208166327557</v>
+      </c>
+      <c r="H33" s="46">
+        <v>24.387532079578186</v>
+      </c>
+      <c r="I33" s="47">
+        <v>13.142031453159895</v>
+      </c>
+      <c r="J33" s="47">
+        <v>3.1075029980285622</v>
+      </c>
+      <c r="K33" s="48">
+        <v>40.637066530766646</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="40">
         <v>2021</v>
       </c>
-      <c r="B34" s="42">
-        <v>39092903.57329683</v>
-      </c>
-      <c r="C34" s="43">
-        <v>46687235.680271797</v>
-      </c>
-      <c r="D34" s="44">
-        <v>26.608948052605985</v>
-      </c>
-      <c r="E34" s="45">
-        <v>13.434192920822346</v>
-      </c>
-      <c r="F34" s="45">
-        <v>3.0482969688295962</v>
-      </c>
-      <c r="G34" s="46">
-        <v>43.091437942257926</v>
-      </c>
-      <c r="H34" s="44">
-        <v>22.280630353254068</v>
-      </c>
-      <c r="I34" s="45">
-        <v>11.248933477993345</v>
-      </c>
-      <c r="J34" s="45">
-        <v>2.5524488166598318</v>
-      </c>
-      <c r="K34" s="46">
-        <v>36.082012647907248</v>
+      <c r="B34" s="41">
+        <v>38514121.438936368</v>
+      </c>
+      <c r="C34" s="42">
+        <v>46282066.000543848</v>
+      </c>
+      <c r="D34" s="43">
+        <v>26.1330018683731</v>
+      </c>
+      <c r="E34" s="44">
+        <v>14.056926239269959</v>
+      </c>
+      <c r="F34" s="44">
+        <v>3.7320790982257801</v>
+      </c>
+      <c r="G34" s="45">
+        <v>43.922007205868837</v>
+      </c>
+      <c r="H34" s="43">
+        <v>21.74685995025904</v>
+      </c>
+      <c r="I34" s="44">
+        <v>11.697623097271686</v>
+      </c>
+      <c r="J34" s="44">
+        <v>3.1056899579006432</v>
+      </c>
+      <c r="K34" s="45">
+        <v>36.550173005431361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="40">
+        <v>2022</v>
+      </c>
+      <c r="B35" s="41">
+        <v>68492183.483832181</v>
+      </c>
+      <c r="C35" s="42">
+        <v>82650239.853444219</v>
+      </c>
+      <c r="D35" s="43">
+        <v>26.610266159350292</v>
+      </c>
+      <c r="E35" s="44">
+        <v>14.073402483375693</v>
+      </c>
+      <c r="F35" s="44">
+        <v>4.1959800240398248</v>
+      </c>
+      <c r="G35" s="45">
+        <v>44.879648666765817</v>
+      </c>
+      <c r="H35" s="43">
+        <v>22.051904937864244</v>
+      </c>
+      <c r="I35" s="44">
+        <v>11.662616670470786</v>
+      </c>
+      <c r="J35" s="44">
+        <v>3.4772050778150767</v>
+      </c>
+      <c r="K35" s="45">
+        <v>37.191726686150105</v>
       </c>
     </row>
   </sheetData>
@@ -5561,86 +5610,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:B9"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="94.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B2" s="58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="B3" s="58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B4" s="58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="58" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="59" t="s">
+    <row r="9" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="58" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5648,4 +5698,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C55D243-A959-45FC-A683-9A01C8E61E3B}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="59">
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="59">
+        <v>45078</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/crudo/datos/Puestos y salarios_para ceped.data.xlsx
+++ b/crudo/datos/Puestos y salarios_para ceped.data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\ceped-data\crudo\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F31060D-D170-4C00-9847-F0080BD43664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B217FA-D2A6-4816-BE44-C414750924FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Síntesis Puestos, W y Masa W" sheetId="14" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>Año</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>PUESTOS DE TRABAJO - COMPOSICIÓN</t>
-  </si>
-  <si>
-    <t>CEPED  (en base a CGI93 y CGI04)</t>
   </si>
   <si>
     <t>Brecha salarial - Privado no registrdo / Privado registrado</t>
@@ -1856,11 +1853,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="N23" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="W34" sqref="W34"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1895,7 +1892,7 @@
       <c r="L3" s="63"/>
       <c r="M3" s="64"/>
       <c r="N3" s="66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O3" s="65" t="s">
         <v>12</v>
@@ -1904,13 +1901,13 @@
       <c r="Q3" s="63"/>
       <c r="R3" s="64"/>
       <c r="S3" s="62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T3" s="63"/>
       <c r="U3" s="63"/>
       <c r="V3" s="64"/>
       <c r="W3" s="62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X3" s="63"/>
       <c r="Y3" s="63"/>
@@ -4432,11 +4429,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:N35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4451,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="72" t="s">
@@ -4498,7 +4495,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>1</v>
@@ -4510,7 +4507,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5623,74 +5620,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5715,7 +5712,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
